--- a/third-party/Input_Total.xlsx
+++ b/third-party/Input_Total.xlsx
@@ -3707,7 +3707,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="9">
-        <v>1022</v>
+        <v>1013</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>352</v>
@@ -4603,7 +4603,7 @@
         <v>131</v>
       </c>
       <c r="B98" s="14">
-        <v>2.29</v>
+        <v>2</v>
       </c>
       <c r="C98" s="40"/>
     </row>
@@ -4612,7 +4612,7 @@
         <v>132</v>
       </c>
       <c r="B99" s="14">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C99" s="40"/>
     </row>
@@ -4621,7 +4621,7 @@
         <v>133</v>
       </c>
       <c r="B100" s="14">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C100" s="40"/>
     </row>
@@ -4630,7 +4630,7 @@
         <v>134</v>
       </c>
       <c r="B101" s="14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C101" s="40"/>
       <c r="E101" s="2"/>
@@ -4876,7 +4876,7 @@
         <v>166</v>
       </c>
       <c r="B128" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C128" s="37" t="s">
         <v>3</v>
@@ -4887,7 +4887,7 @@
         <v>167</v>
       </c>
       <c r="B129" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C129" s="37"/>
     </row>
@@ -4896,7 +4896,7 @@
         <v>168</v>
       </c>
       <c r="B130" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C130" s="37"/>
     </row>
@@ -4905,7 +4905,7 @@
         <v>169</v>
       </c>
       <c r="B131" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C131" s="37"/>
     </row>
@@ -4914,7 +4914,7 @@
         <v>170</v>
       </c>
       <c r="B132" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C132" s="37"/>
     </row>
@@ -4923,7 +4923,7 @@
         <v>171</v>
       </c>
       <c r="B133" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C133" s="37"/>
     </row>
@@ -4932,7 +4932,7 @@
         <v>172</v>
       </c>
       <c r="B134" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C134" s="37"/>
     </row>
@@ -4941,7 +4941,7 @@
         <v>173</v>
       </c>
       <c r="B135" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C135" s="37"/>
     </row>
@@ -4950,7 +4950,7 @@
         <v>174</v>
       </c>
       <c r="B136" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C136" s="37"/>
     </row>
@@ -4968,7 +4968,7 @@
         <v>32</v>
       </c>
       <c r="B138" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C138" s="37"/>
     </row>
@@ -5700,7 +5700,7 @@
         <v>258</v>
       </c>
       <c r="B216" s="22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C216" s="41" t="s">
         <v>7</v>
@@ -5711,7 +5711,7 @@
         <v>259</v>
       </c>
       <c r="B217" s="22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C217" s="41"/>
     </row>
@@ -5720,7 +5720,7 @@
         <v>260</v>
       </c>
       <c r="B218" s="22">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C218" s="41"/>
     </row>
@@ -5729,7 +5729,7 @@
         <v>261</v>
       </c>
       <c r="B219" s="22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C219" s="41"/>
     </row>
@@ -5738,7 +5738,7 @@
         <v>68</v>
       </c>
       <c r="B220" s="22">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C220" s="41"/>
     </row>
@@ -5893,7 +5893,7 @@
         <v>278</v>
       </c>
       <c r="B237" s="28">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C237" s="39" t="s">
         <v>8</v>
@@ -5904,7 +5904,7 @@
         <v>279</v>
       </c>
       <c r="B238" s="28">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C238" s="39"/>
     </row>
@@ -5922,7 +5922,7 @@
         <v>281</v>
       </c>
       <c r="B240" s="35">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="C240" s="39"/>
     </row>
@@ -5931,7 +5931,7 @@
         <v>69</v>
       </c>
       <c r="B241" s="28">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C241" s="39"/>
     </row>
@@ -6455,7 +6455,7 @@
         <v>78</v>
       </c>
       <c r="B297" s="20">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="C297" s="38"/>
     </row>
@@ -6464,7 +6464,7 @@
         <v>79</v>
       </c>
       <c r="B298" s="20">
-        <v>-40</v>
+        <v>3</v>
       </c>
       <c r="C298" s="38"/>
     </row>
@@ -6473,7 +6473,7 @@
         <v>80</v>
       </c>
       <c r="B299" s="20">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="C299" s="38"/>
     </row>
@@ -6482,7 +6482,7 @@
         <v>81</v>
       </c>
       <c r="B300" s="20">
-        <v>150</v>
+        <v>4</v>
       </c>
       <c r="C300" s="38"/>
     </row>
@@ -6491,7 +6491,7 @@
         <v>82</v>
       </c>
       <c r="B301" s="20">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="C301" s="38"/>
     </row>
@@ -6500,7 +6500,7 @@
         <v>161</v>
       </c>
       <c r="B302" s="20">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C302" s="38"/>
     </row>
@@ -6536,7 +6536,7 @@
         <v>94</v>
       </c>
       <c r="B306" s="14">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="C306" s="49" t="s">
         <v>63</v>
@@ -6550,7 +6550,7 @@
         <v>95</v>
       </c>
       <c r="B307" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C307" s="49"/>
       <c r="D307" s="51"/>
@@ -6560,7 +6560,7 @@
         <v>96</v>
       </c>
       <c r="B308" s="14">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C308" s="49"/>
       <c r="D308" s="51"/>
@@ -6570,7 +6570,7 @@
         <v>71</v>
       </c>
       <c r="B309" s="14">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="C309" s="49"/>
       <c r="D309" s="51"/>
@@ -6580,7 +6580,7 @@
         <v>72</v>
       </c>
       <c r="B310" s="14">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="C310" s="49"/>
       <c r="D310" s="51"/>
@@ -6600,7 +6600,7 @@
         <v>52</v>
       </c>
       <c r="B312" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C312" s="50" t="s">
         <v>62</v>
@@ -6614,7 +6614,7 @@
         <v>86</v>
       </c>
       <c r="B313" s="20">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="C313" s="50"/>
       <c r="D313" s="51"/>
@@ -6624,7 +6624,7 @@
         <v>87</v>
       </c>
       <c r="B314" s="20">
-        <v>-40</v>
+        <v>6</v>
       </c>
       <c r="C314" s="50"/>
       <c r="D314" s="51"/>
@@ -6634,7 +6634,7 @@
         <v>88</v>
       </c>
       <c r="B315" s="20">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="C315" s="50"/>
       <c r="D315" s="51"/>
@@ -6644,7 +6644,7 @@
         <v>89</v>
       </c>
       <c r="B316" s="20">
-        <v>150</v>
+        <v>8</v>
       </c>
       <c r="C316" s="50"/>
       <c r="D316" s="51"/>
@@ -6654,7 +6654,7 @@
         <v>90</v>
       </c>
       <c r="B317" s="20">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C317" s="50"/>
       <c r="D317" s="51"/>
@@ -6704,7 +6704,7 @@
         <v>74</v>
       </c>
       <c r="B322" s="14">
-        <v>12</v>
+        <v>213</v>
       </c>
       <c r="C322" s="40" t="s">
         <v>64</v>
@@ -6715,7 +6715,7 @@
         <v>97</v>
       </c>
       <c r="B323" s="14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C323" s="40"/>
     </row>
@@ -6724,7 +6724,7 @@
         <v>98</v>
       </c>
       <c r="B324" s="14">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="C324" s="40"/>
     </row>
@@ -6733,7 +6733,7 @@
         <v>75</v>
       </c>
       <c r="B325" s="14">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C325" s="40"/>
     </row>
@@ -6742,7 +6742,7 @@
         <v>76</v>
       </c>
       <c r="B326" s="14">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="C326" s="40"/>
     </row>

--- a/third-party/Input_Total.xlsx
+++ b/third-party/Input_Total.xlsx
@@ -3707,7 +3707,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="9">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>352</v>
@@ -3729,7 +3729,7 @@
         <v>42</v>
       </c>
       <c r="B3" s="12">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="C3" s="42"/>
     </row>
@@ -3738,7 +3738,7 @@
         <v>43</v>
       </c>
       <c r="B4" s="12">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="C4" s="42"/>
     </row>
@@ -4603,7 +4603,7 @@
         <v>131</v>
       </c>
       <c r="B98" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C98" s="40"/>
     </row>
@@ -4612,7 +4612,7 @@
         <v>132</v>
       </c>
       <c r="B99" s="14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C99" s="40"/>
     </row>
@@ -4621,7 +4621,7 @@
         <v>133</v>
       </c>
       <c r="B100" s="14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C100" s="40"/>
     </row>
@@ -4630,7 +4630,7 @@
         <v>134</v>
       </c>
       <c r="B101" s="14">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C101" s="40"/>
       <c r="E101" s="2"/>
@@ -5093,7 +5093,7 @@
         <v>208</v>
       </c>
       <c r="B151" s="16">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C151" s="37"/>
     </row>
@@ -5111,7 +5111,7 @@
         <v>210</v>
       </c>
       <c r="B153" s="16">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C153" s="37"/>
     </row>
@@ -5120,7 +5120,7 @@
         <v>211</v>
       </c>
       <c r="B154" s="16">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C154" s="37"/>
     </row>
@@ -5129,7 +5129,7 @@
         <v>212</v>
       </c>
       <c r="B155" s="16">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C155" s="37"/>
     </row>
@@ -5138,7 +5138,7 @@
         <v>213</v>
       </c>
       <c r="B156" s="16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C156" s="37"/>
     </row>
@@ -5147,7 +5147,7 @@
         <v>214</v>
       </c>
       <c r="B157" s="16">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C157" s="37"/>
     </row>
@@ -5156,7 +5156,7 @@
         <v>215</v>
       </c>
       <c r="B158" s="16">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C158" s="37"/>
     </row>
@@ -5174,7 +5174,7 @@
         <v>41</v>
       </c>
       <c r="B160" s="24">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C160" s="37"/>
     </row>
@@ -5904,7 +5904,7 @@
         <v>279</v>
       </c>
       <c r="B238" s="28">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C238" s="39"/>
     </row>
@@ -5913,7 +5913,7 @@
         <v>280</v>
       </c>
       <c r="B239" s="35">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C239" s="39"/>
     </row>
@@ -5922,7 +5922,7 @@
         <v>281</v>
       </c>
       <c r="B240" s="35">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C240" s="39"/>
     </row>
@@ -5931,7 +5931,7 @@
         <v>69</v>
       </c>
       <c r="B241" s="28">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C241" s="39"/>
     </row>
@@ -6086,7 +6086,7 @@
         <v>298</v>
       </c>
       <c r="B258" s="28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C258" s="39" t="s">
         <v>9</v>
@@ -6097,7 +6097,7 @@
         <v>299</v>
       </c>
       <c r="B259" s="28">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C259" s="39"/>
     </row>
@@ -6106,7 +6106,7 @@
         <v>300</v>
       </c>
       <c r="B260" s="28">
-        <v>87</v>
+        <v>2</v>
       </c>
       <c r="C260" s="39"/>
     </row>
@@ -6115,7 +6115,7 @@
         <v>301</v>
       </c>
       <c r="B261" s="28">
-        <v>4</v>
+        <v>333</v>
       </c>
       <c r="C261" s="39"/>
     </row>
@@ -6444,7 +6444,7 @@
         <v>51</v>
       </c>
       <c r="B296" s="20">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C296" s="38" t="s">
         <v>61</v>
@@ -6455,7 +6455,7 @@
         <v>78</v>
       </c>
       <c r="B297" s="20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C297" s="38"/>
     </row>
@@ -6491,7 +6491,7 @@
         <v>82</v>
       </c>
       <c r="B301" s="20">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C301" s="38"/>
     </row>
@@ -6500,7 +6500,7 @@
         <v>161</v>
       </c>
       <c r="B302" s="20">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C302" s="38"/>
     </row>
@@ -6580,7 +6580,7 @@
         <v>72</v>
       </c>
       <c r="B310" s="14">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C310" s="49"/>
       <c r="D310" s="51"/>
@@ -6644,7 +6644,7 @@
         <v>89</v>
       </c>
       <c r="B316" s="20">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C316" s="50"/>
       <c r="D316" s="51"/>
@@ -6654,7 +6654,7 @@
         <v>90</v>
       </c>
       <c r="B317" s="20">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C317" s="50"/>
       <c r="D317" s="51"/>
@@ -6664,7 +6664,7 @@
         <v>162</v>
       </c>
       <c r="B318" s="20">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C318" s="50"/>
       <c r="D318" s="51"/>
@@ -6733,7 +6733,7 @@
         <v>75</v>
       </c>
       <c r="B325" s="14">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="C325" s="40"/>
     </row>
@@ -6742,7 +6742,7 @@
         <v>76</v>
       </c>
       <c r="B326" s="14">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C326" s="40"/>
     </row>

--- a/third-party/Input_Total.xlsx
+++ b/third-party/Input_Total.xlsx
@@ -3707,7 +3707,7 @@
         <v>44</v>
       </c>
       <c r="B1" s="9">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>352</v>
@@ -4603,7 +4603,7 @@
         <v>131</v>
       </c>
       <c r="B98" s="14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C98" s="40"/>
     </row>
@@ -4612,7 +4612,7 @@
         <v>132</v>
       </c>
       <c r="B99" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C99" s="40"/>
     </row>
@@ -4621,7 +4621,7 @@
         <v>133</v>
       </c>
       <c r="B100" s="14">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C100" s="40"/>
     </row>
@@ -4630,7 +4630,7 @@
         <v>134</v>
       </c>
       <c r="B101" s="14">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C101" s="40"/>
       <c r="E101" s="2"/>
@@ -5893,7 +5893,7 @@
         <v>278</v>
       </c>
       <c r="B237" s="28">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C237" s="39" t="s">
         <v>8</v>
@@ -5904,7 +5904,7 @@
         <v>279</v>
       </c>
       <c r="B238" s="28">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C238" s="39"/>
     </row>
@@ -5913,7 +5913,7 @@
         <v>280</v>
       </c>
       <c r="B239" s="35">
-        <v>2</v>
+        <v>999</v>
       </c>
       <c r="C239" s="39"/>
     </row>
@@ -5922,7 +5922,7 @@
         <v>281</v>
       </c>
       <c r="B240" s="35">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C240" s="39"/>
     </row>
@@ -5931,7 +5931,7 @@
         <v>69</v>
       </c>
       <c r="B241" s="28">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="C241" s="39"/>
     </row>
@@ -6086,7 +6086,7 @@
         <v>298</v>
       </c>
       <c r="B258" s="28">
-        <v>2</v>
+        <v>999</v>
       </c>
       <c r="C258" s="39" t="s">
         <v>9</v>
@@ -6097,7 +6097,7 @@
         <v>299</v>
       </c>
       <c r="B259" s="28">
-        <v>33</v>
+        <v>999</v>
       </c>
       <c r="C259" s="39"/>
     </row>
@@ -6106,7 +6106,7 @@
         <v>300</v>
       </c>
       <c r="B260" s="28">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="C260" s="39"/>
     </row>
@@ -6115,7 +6115,7 @@
         <v>301</v>
       </c>
       <c r="B261" s="28">
-        <v>333</v>
+        <v>999</v>
       </c>
       <c r="C261" s="39"/>
     </row>
@@ -6444,7 +6444,7 @@
         <v>51</v>
       </c>
       <c r="B296" s="20">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="C296" s="38" t="s">
         <v>61</v>
@@ -6455,7 +6455,7 @@
         <v>78</v>
       </c>
       <c r="B297" s="20">
-        <v>3</v>
+        <v>99</v>
       </c>
       <c r="C297" s="38"/>
     </row>
@@ -6464,7 +6464,7 @@
         <v>79</v>
       </c>
       <c r="B298" s="20">
-        <v>3</v>
+        <v>9999</v>
       </c>
       <c r="C298" s="38"/>
     </row>
@@ -6473,7 +6473,7 @@
         <v>80</v>
       </c>
       <c r="B299" s="20">
-        <v>3</v>
+        <v>9999</v>
       </c>
       <c r="C299" s="38"/>
     </row>
@@ -6482,7 +6482,7 @@
         <v>81</v>
       </c>
       <c r="B300" s="20">
-        <v>4</v>
+        <v>9999</v>
       </c>
       <c r="C300" s="38"/>
     </row>
@@ -6491,7 +6491,7 @@
         <v>82</v>
       </c>
       <c r="B301" s="20">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="C301" s="38"/>
     </row>
@@ -6500,7 +6500,7 @@
         <v>161</v>
       </c>
       <c r="B302" s="20">
-        <v>21</v>
+        <v>99</v>
       </c>
       <c r="C302" s="38"/>
     </row>
@@ -6536,7 +6536,7 @@
         <v>94</v>
       </c>
       <c r="B306" s="14">
-        <v>2</v>
+        <v>55</v>
       </c>
       <c r="C306" s="49" t="s">
         <v>63</v>
@@ -6550,7 +6550,7 @@
         <v>95</v>
       </c>
       <c r="B307" s="14">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="C307" s="49"/>
       <c r="D307" s="51"/>
@@ -6560,7 +6560,7 @@
         <v>96</v>
       </c>
       <c r="B308" s="14">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="C308" s="49"/>
       <c r="D308" s="51"/>
@@ -6570,7 +6570,7 @@
         <v>71</v>
       </c>
       <c r="B309" s="14">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C309" s="49"/>
       <c r="D309" s="51"/>
@@ -6580,7 +6580,7 @@
         <v>72</v>
       </c>
       <c r="B310" s="14">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C310" s="49"/>
       <c r="D310" s="51"/>
@@ -6600,7 +6600,7 @@
         <v>52</v>
       </c>
       <c r="B312" s="20">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C312" s="50" t="s">
         <v>62</v>
@@ -6614,7 +6614,7 @@
         <v>86</v>
       </c>
       <c r="B313" s="20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C313" s="50"/>
       <c r="D313" s="51"/>
@@ -6624,7 +6624,7 @@
         <v>87</v>
       </c>
       <c r="B314" s="20">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C314" s="50"/>
       <c r="D314" s="51"/>
@@ -6634,7 +6634,7 @@
         <v>88</v>
       </c>
       <c r="B315" s="20">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C315" s="50"/>
       <c r="D315" s="51"/>
@@ -6644,7 +6644,7 @@
         <v>89</v>
       </c>
       <c r="B316" s="20">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C316" s="50"/>
       <c r="D316" s="51"/>
@@ -6654,7 +6654,7 @@
         <v>90</v>
       </c>
       <c r="B317" s="20">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C317" s="50"/>
       <c r="D317" s="51"/>
@@ -6664,7 +6664,7 @@
         <v>162</v>
       </c>
       <c r="B318" s="20">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C318" s="50"/>
       <c r="D318" s="51"/>
@@ -6704,7 +6704,7 @@
         <v>74</v>
       </c>
       <c r="B322" s="14">
-        <v>213</v>
+        <v>2</v>
       </c>
       <c r="C322" s="40" t="s">
         <v>64</v>
@@ -6724,7 +6724,7 @@
         <v>98</v>
       </c>
       <c r="B324" s="14">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="C324" s="40"/>
     </row>
@@ -6733,7 +6733,7 @@
         <v>75</v>
       </c>
       <c r="B325" s="14">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C325" s="40"/>
     </row>
@@ -6742,7 +6742,7 @@
         <v>76</v>
       </c>
       <c r="B326" s="14">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="C326" s="40"/>
     </row>

--- a/third-party/Input_Total.xlsx
+++ b/third-party/Input_Total.xlsx
@@ -4612,7 +4612,7 @@
         <v>132</v>
       </c>
       <c r="B99" s="14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C99" s="40"/>
     </row>
@@ -4621,7 +4621,7 @@
         <v>133</v>
       </c>
       <c r="B100" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C100" s="40"/>
     </row>
@@ -4630,7 +4630,7 @@
         <v>134</v>
       </c>
       <c r="B101" s="14">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C101" s="40"/>
       <c r="E101" s="2"/>
@@ -5082,7 +5082,7 @@
         <v>207</v>
       </c>
       <c r="B150" s="16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C150" s="37" t="s">
         <v>4</v>
@@ -5093,7 +5093,7 @@
         <v>208</v>
       </c>
       <c r="B151" s="16">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C151" s="37"/>
     </row>
@@ -5102,7 +5102,7 @@
         <v>209</v>
       </c>
       <c r="B152" s="16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C152" s="37"/>
     </row>
@@ -5120,7 +5120,7 @@
         <v>211</v>
       </c>
       <c r="B154" s="16">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C154" s="37"/>
     </row>
@@ -5129,7 +5129,7 @@
         <v>212</v>
       </c>
       <c r="B155" s="16">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C155" s="37"/>
     </row>
@@ -5138,7 +5138,7 @@
         <v>213</v>
       </c>
       <c r="B156" s="16">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C156" s="37"/>
     </row>
@@ -5147,7 +5147,7 @@
         <v>214</v>
       </c>
       <c r="B157" s="16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C157" s="37"/>
     </row>
@@ -5156,7 +5156,7 @@
         <v>215</v>
       </c>
       <c r="B158" s="16">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C158" s="37"/>
     </row>
@@ -5174,7 +5174,7 @@
         <v>41</v>
       </c>
       <c r="B160" s="24">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C160" s="37"/>
     </row>
@@ -5893,7 +5893,7 @@
         <v>278</v>
       </c>
       <c r="B237" s="28">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="C237" s="39" t="s">
         <v>8</v>
@@ -5904,7 +5904,7 @@
         <v>279</v>
       </c>
       <c r="B238" s="28">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="C238" s="39"/>
     </row>
@@ -5913,7 +5913,7 @@
         <v>280</v>
       </c>
       <c r="B239" s="35">
-        <v>999</v>
+        <v>8</v>
       </c>
       <c r="C239" s="39"/>
     </row>
@@ -5922,7 +5922,7 @@
         <v>281</v>
       </c>
       <c r="B240" s="35">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="C240" s="39"/>
     </row>
@@ -5931,7 +5931,7 @@
         <v>69</v>
       </c>
       <c r="B241" s="28">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="C241" s="39"/>
     </row>
@@ -6086,7 +6086,7 @@
         <v>298</v>
       </c>
       <c r="B258" s="28">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="C258" s="39" t="s">
         <v>9</v>
@@ -6097,7 +6097,7 @@
         <v>299</v>
       </c>
       <c r="B259" s="28">
-        <v>999</v>
+        <v>1</v>
       </c>
       <c r="C259" s="39"/>
     </row>
@@ -6106,7 +6106,7 @@
         <v>300</v>
       </c>
       <c r="B260" s="28">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="C260" s="39"/>
     </row>
@@ -6115,7 +6115,7 @@
         <v>301</v>
       </c>
       <c r="B261" s="28">
-        <v>999</v>
+        <v>4</v>
       </c>
       <c r="C261" s="39"/>
     </row>
@@ -6444,7 +6444,7 @@
         <v>51</v>
       </c>
       <c r="B296" s="20">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="C296" s="38" t="s">
         <v>61</v>
@@ -6455,7 +6455,7 @@
         <v>78</v>
       </c>
       <c r="B297" s="20">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="C297" s="38"/>
     </row>
@@ -6464,7 +6464,7 @@
         <v>79</v>
       </c>
       <c r="B298" s="20">
-        <v>9999</v>
+        <v>2</v>
       </c>
       <c r="C298" s="38"/>
     </row>
@@ -6473,7 +6473,7 @@
         <v>80</v>
       </c>
       <c r="B299" s="20">
-        <v>9999</v>
+        <v>3</v>
       </c>
       <c r="C299" s="38"/>
     </row>
@@ -6482,7 +6482,7 @@
         <v>81</v>
       </c>
       <c r="B300" s="20">
-        <v>9999</v>
+        <v>3</v>
       </c>
       <c r="C300" s="38"/>
     </row>
@@ -6491,7 +6491,7 @@
         <v>82</v>
       </c>
       <c r="B301" s="20">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="C301" s="38"/>
     </row>
@@ -6500,7 +6500,7 @@
         <v>161</v>
       </c>
       <c r="B302" s="20">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="C302" s="38"/>
     </row>
@@ -6536,7 +6536,7 @@
         <v>94</v>
       </c>
       <c r="B306" s="14">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="C306" s="49" t="s">
         <v>63</v>
@@ -6550,7 +6550,7 @@
         <v>95</v>
       </c>
       <c r="B307" s="14">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="C307" s="49"/>
       <c r="D307" s="51"/>
@@ -6560,7 +6560,7 @@
         <v>96</v>
       </c>
       <c r="B308" s="14">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="C308" s="49"/>
       <c r="D308" s="51"/>
@@ -6570,7 +6570,7 @@
         <v>71</v>
       </c>
       <c r="B309" s="14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C309" s="49"/>
       <c r="D309" s="51"/>
@@ -6580,7 +6580,7 @@
         <v>72</v>
       </c>
       <c r="B310" s="14">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="C310" s="49"/>
       <c r="D310" s="51"/>
@@ -6600,7 +6600,7 @@
         <v>52</v>
       </c>
       <c r="B312" s="20">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C312" s="50" t="s">
         <v>62</v>
@@ -6614,7 +6614,7 @@
         <v>86</v>
       </c>
       <c r="B313" s="20">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C313" s="50"/>
       <c r="D313" s="51"/>
@@ -6624,7 +6624,7 @@
         <v>87</v>
       </c>
       <c r="B314" s="20">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="C314" s="50"/>
       <c r="D314" s="51"/>
@@ -6634,7 +6634,7 @@
         <v>88</v>
       </c>
       <c r="B315" s="20">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C315" s="50"/>
       <c r="D315" s="51"/>
@@ -6644,7 +6644,7 @@
         <v>89</v>
       </c>
       <c r="B316" s="20">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="C316" s="50"/>
       <c r="D316" s="51"/>
@@ -6654,7 +6654,7 @@
         <v>90</v>
       </c>
       <c r="B317" s="20">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C317" s="50"/>
       <c r="D317" s="51"/>
@@ -6664,7 +6664,7 @@
         <v>162</v>
       </c>
       <c r="B318" s="20">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C318" s="50"/>
       <c r="D318" s="51"/>
@@ -6704,7 +6704,7 @@
         <v>74</v>
       </c>
       <c r="B322" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C322" s="40" t="s">
         <v>64</v>
@@ -6715,7 +6715,7 @@
         <v>97</v>
       </c>
       <c r="B323" s="14">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C323" s="40"/>
     </row>
@@ -6724,7 +6724,7 @@
         <v>98</v>
       </c>
       <c r="B324" s="14">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C324" s="40"/>
     </row>
@@ -6733,7 +6733,7 @@
         <v>75</v>
       </c>
       <c r="B325" s="14">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C325" s="40"/>
     </row>
@@ -6742,7 +6742,7 @@
         <v>76</v>
       </c>
       <c r="B326" s="14">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C326" s="40"/>
     </row>

--- a/third-party/Input_Total.xlsx
+++ b/third-party/Input_Total.xlsx
@@ -3765,7 +3765,7 @@
         <v>47</v>
       </c>
       <c r="B7" s="12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C7" s="42"/>
     </row>
@@ -3774,7 +3774,7 @@
         <v>48</v>
       </c>
       <c r="B8" s="12">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C8" s="42"/>
     </row>
@@ -3783,7 +3783,7 @@
         <v>49</v>
       </c>
       <c r="B9" s="12">
-        <v>367</v>
+        <v>3</v>
       </c>
       <c r="C9" s="42"/>
     </row>
@@ -6509,7 +6509,7 @@
         <v>83</v>
       </c>
       <c r="B303" s="20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C303" s="38"/>
     </row>
@@ -6518,7 +6518,7 @@
         <v>84</v>
       </c>
       <c r="B304" s="20">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C304" s="38"/>
     </row>
@@ -6590,7 +6590,7 @@
         <v>73</v>
       </c>
       <c r="B311" s="14">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="C311" s="49"/>
       <c r="D311" s="51"/>

--- a/third-party/Input_Total.xlsx
+++ b/third-party/Input_Total.xlsx
@@ -3729,7 +3729,7 @@
         <v>42</v>
       </c>
       <c r="B3" s="12">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="C3" s="42"/>
     </row>
@@ -3738,7 +3738,7 @@
         <v>43</v>
       </c>
       <c r="B4" s="12">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="C4" s="42"/>
     </row>
@@ -3747,7 +3747,7 @@
         <v>45</v>
       </c>
       <c r="B5" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C5" s="42"/>
     </row>
@@ -3756,7 +3756,7 @@
         <v>46</v>
       </c>
       <c r="B6" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C6" s="42"/>
     </row>
@@ -3765,7 +3765,7 @@
         <v>47</v>
       </c>
       <c r="B7" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" s="42"/>
     </row>
@@ -3774,7 +3774,7 @@
         <v>48</v>
       </c>
       <c r="B8" s="12">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" s="42"/>
     </row>
@@ -3783,7 +3783,7 @@
         <v>49</v>
       </c>
       <c r="B9" s="12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C9" s="42"/>
     </row>
@@ -3801,7 +3801,7 @@
         <v>50</v>
       </c>
       <c r="B11" s="12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" s="42"/>
       <c r="E11" s="2"/>
@@ -4583,7 +4583,7 @@
         <v>31</v>
       </c>
       <c r="B96" s="36">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C96" s="40"/>
       <c r="E96" s="2"/>
@@ -4593,7 +4593,7 @@
         <v>779</v>
       </c>
       <c r="B97" s="36">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="C97" s="40"/>
       <c r="E97" s="2"/>
@@ -4603,7 +4603,7 @@
         <v>131</v>
       </c>
       <c r="B98" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C98" s="40"/>
     </row>
@@ -4612,7 +4612,7 @@
         <v>132</v>
       </c>
       <c r="B99" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C99" s="40"/>
     </row>
@@ -4621,7 +4621,7 @@
         <v>133</v>
       </c>
       <c r="B100" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C100" s="40"/>
     </row>
@@ -4630,7 +4630,7 @@
         <v>134</v>
       </c>
       <c r="B101" s="14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C101" s="40"/>
       <c r="E101" s="2"/>
@@ -4640,7 +4640,7 @@
         <v>135</v>
       </c>
       <c r="B102" s="36">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C102" s="40"/>
     </row>
@@ -4649,7 +4649,7 @@
         <v>136</v>
       </c>
       <c r="B103" s="14">
-        <v>3.0179999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="C103" s="40"/>
     </row>
@@ -4658,7 +4658,7 @@
         <v>137</v>
       </c>
       <c r="B104" s="14">
-        <v>3.0179999999999998E-2</v>
+        <v>0</v>
       </c>
       <c r="C104" s="40"/>
     </row>
@@ -4667,7 +4667,7 @@
         <v>138</v>
       </c>
       <c r="B105" s="14">
-        <v>1.4200000000000001E-2</v>
+        <v>0</v>
       </c>
       <c r="C105" s="40"/>
     </row>
@@ -4676,7 +4676,7 @@
         <v>139</v>
       </c>
       <c r="B106" s="14">
-        <v>9.7789999999999999</v>
+        <v>0</v>
       </c>
       <c r="C106" s="40"/>
     </row>
@@ -4685,7 +4685,7 @@
         <v>140</v>
       </c>
       <c r="B107" s="14">
-        <v>7900</v>
+        <v>0</v>
       </c>
       <c r="C107" s="40"/>
     </row>
@@ -4694,7 +4694,7 @@
         <v>141</v>
       </c>
       <c r="B108" s="14">
-        <v>7900</v>
+        <v>0</v>
       </c>
       <c r="C108" s="40"/>
     </row>
@@ -4703,7 +4703,7 @@
         <v>142</v>
       </c>
       <c r="B109" s="14">
-        <v>1.6100000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="C109" s="40"/>
     </row>
@@ -4712,7 +4712,7 @@
         <v>143</v>
       </c>
       <c r="B110" s="14">
-        <v>1.6100000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="C110" s="40"/>
     </row>
@@ -4721,7 +4721,7 @@
         <v>144</v>
       </c>
       <c r="B111" s="14">
-        <v>14.361800000000001</v>
+        <v>0</v>
       </c>
       <c r="C111" s="40"/>
     </row>
@@ -4730,7 +4730,7 @@
         <v>145</v>
       </c>
       <c r="B112" s="14">
-        <v>14.361800000000001</v>
+        <v>0</v>
       </c>
       <c r="C112" s="40"/>
     </row>
@@ -5082,7 +5082,7 @@
         <v>207</v>
       </c>
       <c r="B150" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C150" s="37" t="s">
         <v>4</v>
@@ -5093,7 +5093,7 @@
         <v>208</v>
       </c>
       <c r="B151" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C151" s="37"/>
     </row>
@@ -5102,7 +5102,7 @@
         <v>209</v>
       </c>
       <c r="B152" s="16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C152" s="37"/>
     </row>
@@ -5111,7 +5111,7 @@
         <v>210</v>
       </c>
       <c r="B153" s="16">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C153" s="37"/>
     </row>
@@ -5120,7 +5120,7 @@
         <v>211</v>
       </c>
       <c r="B154" s="16">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C154" s="37"/>
     </row>
@@ -5129,7 +5129,7 @@
         <v>212</v>
       </c>
       <c r="B155" s="16">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C155" s="37"/>
     </row>
@@ -5138,7 +5138,7 @@
         <v>213</v>
       </c>
       <c r="B156" s="16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C156" s="37"/>
     </row>
@@ -5147,7 +5147,7 @@
         <v>214</v>
       </c>
       <c r="B157" s="16">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C157" s="37"/>
     </row>
@@ -5156,7 +5156,7 @@
         <v>215</v>
       </c>
       <c r="B158" s="16">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C158" s="37"/>
     </row>
@@ -5174,7 +5174,7 @@
         <v>41</v>
       </c>
       <c r="B160" s="24">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C160" s="37"/>
     </row>
@@ -5207,7 +5207,7 @@
         <v>225</v>
       </c>
       <c r="B163" s="24">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C163" s="37"/>
     </row>
@@ -5216,7 +5216,7 @@
         <v>226</v>
       </c>
       <c r="B164" s="24">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C164" s="37"/>
     </row>
@@ -5225,7 +5225,7 @@
         <v>227</v>
       </c>
       <c r="B165" s="24">
-        <v>50.1</v>
+        <v>0</v>
       </c>
       <c r="C165" s="37"/>
     </row>
@@ -5234,7 +5234,7 @@
         <v>228</v>
       </c>
       <c r="B166" s="24">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="C166" s="37"/>
     </row>
@@ -5243,7 +5243,7 @@
         <v>229</v>
       </c>
       <c r="B167" s="24">
-        <v>0.74</v>
+        <v>0</v>
       </c>
       <c r="C167" s="37"/>
     </row>
@@ -5252,7 +5252,7 @@
         <v>230</v>
       </c>
       <c r="B168" s="24">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C168" s="37"/>
     </row>
@@ -5261,7 +5261,7 @@
         <v>231</v>
       </c>
       <c r="B169" s="24">
-        <v>0.92500000000000004</v>
+        <v>0</v>
       </c>
       <c r="C169" s="37"/>
     </row>
@@ -5270,7 +5270,7 @@
         <v>232</v>
       </c>
       <c r="B170" s="24">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="C170" s="37"/>
     </row>
@@ -5279,7 +5279,7 @@
         <v>233</v>
       </c>
       <c r="B171" s="24">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C171" s="37"/>
     </row>
@@ -5700,7 +5700,7 @@
         <v>258</v>
       </c>
       <c r="B216" s="22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C216" s="41" t="s">
         <v>7</v>
@@ -5711,7 +5711,7 @@
         <v>259</v>
       </c>
       <c r="B217" s="22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C217" s="41"/>
     </row>
@@ -5720,7 +5720,7 @@
         <v>260</v>
       </c>
       <c r="B218" s="22">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C218" s="41"/>
     </row>
@@ -5729,7 +5729,7 @@
         <v>261</v>
       </c>
       <c r="B219" s="22">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C219" s="41"/>
     </row>
@@ -5738,7 +5738,7 @@
         <v>68</v>
       </c>
       <c r="B220" s="22">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C220" s="41"/>
     </row>
@@ -5747,7 +5747,7 @@
         <v>262</v>
       </c>
       <c r="B221" s="22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C221" s="41"/>
     </row>
@@ -5756,7 +5756,7 @@
         <v>263</v>
       </c>
       <c r="B222" s="22">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C222" s="41"/>
     </row>
@@ -5765,7 +5765,7 @@
         <v>264</v>
       </c>
       <c r="B223" s="22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C223" s="41"/>
     </row>
@@ -5774,7 +5774,7 @@
         <v>265</v>
       </c>
       <c r="B224" s="22">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C224" s="41"/>
     </row>
@@ -5783,7 +5783,7 @@
         <v>266</v>
       </c>
       <c r="B225" s="22">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C225" s="41"/>
     </row>
@@ -5792,7 +5792,7 @@
         <v>267</v>
       </c>
       <c r="B226" s="22">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C226" s="41"/>
     </row>
@@ -5801,7 +5801,7 @@
         <v>268</v>
       </c>
       <c r="B227" s="22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C227" s="41"/>
     </row>
@@ -5810,7 +5810,7 @@
         <v>269</v>
       </c>
       <c r="B228" s="22">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C228" s="41"/>
     </row>
@@ -5846,7 +5846,7 @@
         <v>273</v>
       </c>
       <c r="B232" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C232" s="37" t="s">
         <v>66</v>
@@ -5857,7 +5857,7 @@
         <v>274</v>
       </c>
       <c r="B233" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C233" s="37"/>
     </row>
@@ -5866,7 +5866,7 @@
         <v>275</v>
       </c>
       <c r="B234" s="4">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C234" s="37"/>
     </row>
@@ -5875,7 +5875,7 @@
         <v>276</v>
       </c>
       <c r="B235" s="4">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C235" s="37"/>
     </row>
@@ -5884,7 +5884,7 @@
         <v>277</v>
       </c>
       <c r="B236" s="4">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C236" s="37"/>
     </row>
@@ -5893,7 +5893,7 @@
         <v>278</v>
       </c>
       <c r="B237" s="28">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C237" s="39" t="s">
         <v>8</v>
@@ -5904,7 +5904,7 @@
         <v>279</v>
       </c>
       <c r="B238" s="28">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C238" s="39"/>
     </row>
@@ -5913,7 +5913,7 @@
         <v>280</v>
       </c>
       <c r="B239" s="35">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="C239" s="39"/>
     </row>
@@ -5922,7 +5922,7 @@
         <v>281</v>
       </c>
       <c r="B240" s="35">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C240" s="39"/>
     </row>
@@ -5931,7 +5931,7 @@
         <v>69</v>
       </c>
       <c r="B241" s="28">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C241" s="39"/>
     </row>
@@ -5940,7 +5940,7 @@
         <v>282</v>
       </c>
       <c r="B242" s="28">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C242" s="39"/>
     </row>
@@ -5949,7 +5949,7 @@
         <v>283</v>
       </c>
       <c r="B243" s="18">
-        <v>1.4829999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C243" s="39"/>
     </row>
@@ -5958,7 +5958,7 @@
         <v>284</v>
       </c>
       <c r="B244" s="18">
-        <v>1.4829999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C244" s="39"/>
     </row>
@@ -5967,7 +5967,7 @@
         <v>285</v>
       </c>
       <c r="B245" s="18">
-        <v>5.5579999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="C245" s="39"/>
     </row>
@@ -5976,7 +5976,7 @@
         <v>286</v>
       </c>
       <c r="B246" s="18">
-        <v>9.84</v>
+        <v>0</v>
       </c>
       <c r="C246" s="39"/>
     </row>
@@ -5985,7 +5985,7 @@
         <v>287</v>
       </c>
       <c r="B247" s="18">
-        <v>7900</v>
+        <v>0</v>
       </c>
       <c r="C247" s="39"/>
     </row>
@@ -5994,7 +5994,7 @@
         <v>288</v>
       </c>
       <c r="B248" s="18">
-        <v>7900</v>
+        <v>0</v>
       </c>
       <c r="C248" s="39"/>
     </row>
@@ -6003,7 +6003,7 @@
         <v>289</v>
       </c>
       <c r="B249" s="18">
-        <v>1.6100000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="C249" s="39"/>
     </row>
@@ -6012,7 +6012,7 @@
         <v>290</v>
       </c>
       <c r="B250" s="18">
-        <v>1.6100000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="C250" s="39"/>
     </row>
@@ -6021,7 +6021,7 @@
         <v>291</v>
       </c>
       <c r="B251" s="18">
-        <v>14.361800000000001</v>
+        <v>0</v>
       </c>
       <c r="C251" s="39"/>
     </row>
@@ -6030,7 +6030,7 @@
         <v>292</v>
       </c>
       <c r="B252" s="18">
-        <v>14.361800000000001</v>
+        <v>0</v>
       </c>
       <c r="C252" s="39"/>
     </row>
@@ -6086,7 +6086,7 @@
         <v>298</v>
       </c>
       <c r="B258" s="28">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="C258" s="39" t="s">
         <v>9</v>
@@ -6097,7 +6097,7 @@
         <v>299</v>
       </c>
       <c r="B259" s="28">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="C259" s="39"/>
     </row>
@@ -6106,7 +6106,7 @@
         <v>300</v>
       </c>
       <c r="B260" s="28">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C260" s="39"/>
     </row>
@@ -6115,7 +6115,7 @@
         <v>301</v>
       </c>
       <c r="B261" s="28">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="C261" s="39"/>
     </row>
@@ -6124,7 +6124,7 @@
         <v>302</v>
       </c>
       <c r="B262" s="28">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C262" s="39"/>
     </row>
@@ -6133,7 +6133,7 @@
         <v>303</v>
       </c>
       <c r="B263" s="18">
-        <v>1.4829999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C263" s="39"/>
     </row>
@@ -6142,7 +6142,7 @@
         <v>304</v>
       </c>
       <c r="B264" s="18">
-        <v>1.4829999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C264" s="39"/>
     </row>
@@ -6151,7 +6151,7 @@
         <v>305</v>
       </c>
       <c r="B265" s="18">
-        <v>5.5579999999999997E-2</v>
+        <v>0</v>
       </c>
       <c r="C265" s="39"/>
     </row>
@@ -6160,7 +6160,7 @@
         <v>306</v>
       </c>
       <c r="B266" s="18">
-        <v>9.84</v>
+        <v>0</v>
       </c>
       <c r="C266" s="39"/>
     </row>
@@ -6169,7 +6169,7 @@
         <v>307</v>
       </c>
       <c r="B267" s="18">
-        <v>7900</v>
+        <v>0</v>
       </c>
       <c r="C267" s="39"/>
     </row>
@@ -6178,7 +6178,7 @@
         <v>308</v>
       </c>
       <c r="B268" s="18">
-        <v>7900</v>
+        <v>0</v>
       </c>
       <c r="C268" s="39"/>
     </row>
@@ -6187,7 +6187,7 @@
         <v>309</v>
       </c>
       <c r="B269" s="18">
-        <v>1.6100000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="C269" s="39"/>
     </row>
@@ -6196,7 +6196,7 @@
         <v>310</v>
       </c>
       <c r="B270" s="18">
-        <v>1.6100000000000001E-4</v>
+        <v>0</v>
       </c>
       <c r="C270" s="39"/>
     </row>
@@ -6205,7 +6205,7 @@
         <v>311</v>
       </c>
       <c r="B271" s="18">
-        <v>14.361800000000001</v>
+        <v>0</v>
       </c>
       <c r="C271" s="39"/>
     </row>
@@ -6214,7 +6214,7 @@
         <v>312</v>
       </c>
       <c r="B272" s="18">
-        <v>14.361800000000001</v>
+        <v>0</v>
       </c>
       <c r="C272" s="39"/>
     </row>
@@ -6270,7 +6270,7 @@
         <v>318</v>
       </c>
       <c r="B278" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C278" s="37" t="s">
         <v>10</v>
@@ -6281,7 +6281,7 @@
         <v>319</v>
       </c>
       <c r="B279" s="4">
-        <v>1.4829999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C279" s="37"/>
     </row>
@@ -6290,7 +6290,7 @@
         <v>320</v>
       </c>
       <c r="B280" s="4">
-        <v>1.4829999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C280" s="37"/>
     </row>
@@ -6299,7 +6299,7 @@
         <v>321</v>
       </c>
       <c r="B281" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C281" s="37" t="s">
         <v>11</v>
@@ -6310,7 +6310,7 @@
         <v>322</v>
       </c>
       <c r="B282" s="4">
-        <v>1.4829999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C282" s="37"/>
     </row>
@@ -6319,7 +6319,7 @@
         <v>323</v>
       </c>
       <c r="B283" s="4">
-        <v>1.4829999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C283" s="37"/>
     </row>
@@ -6328,7 +6328,7 @@
         <v>324</v>
       </c>
       <c r="B284" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C284" s="37" t="s">
         <v>12</v>
@@ -6339,7 +6339,7 @@
         <v>325</v>
       </c>
       <c r="B285" s="4">
-        <v>1.4829999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C285" s="37"/>
     </row>
@@ -6348,7 +6348,7 @@
         <v>326</v>
       </c>
       <c r="B286" s="4">
-        <v>1.4829999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C286" s="37"/>
     </row>
@@ -6357,7 +6357,7 @@
         <v>327</v>
       </c>
       <c r="B287" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C287" s="37" t="s">
         <v>13</v>
@@ -6368,7 +6368,7 @@
         <v>328</v>
       </c>
       <c r="B288" s="4">
-        <v>1.4829999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C288" s="37"/>
     </row>
@@ -6377,7 +6377,7 @@
         <v>329</v>
       </c>
       <c r="B289" s="4">
-        <v>1.4829999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C289" s="37"/>
     </row>
@@ -6386,7 +6386,7 @@
         <v>330</v>
       </c>
       <c r="B290" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C290" s="37" t="s">
         <v>14</v>
@@ -6397,7 +6397,7 @@
         <v>331</v>
       </c>
       <c r="B291" s="4">
-        <v>1.4829999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C291" s="37"/>
     </row>
@@ -6406,7 +6406,7 @@
         <v>332</v>
       </c>
       <c r="B292" s="4">
-        <v>1.4829999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C292" s="37"/>
     </row>
@@ -6415,7 +6415,7 @@
         <v>333</v>
       </c>
       <c r="B293" s="4">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="C293" s="37" t="s">
         <v>15</v>
@@ -6426,7 +6426,7 @@
         <v>334</v>
       </c>
       <c r="B294" s="4">
-        <v>1.4829999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C294" s="37"/>
     </row>
@@ -6435,7 +6435,7 @@
         <v>335</v>
       </c>
       <c r="B295" s="4">
-        <v>1.4829999999999999E-2</v>
+        <v>0</v>
       </c>
       <c r="C295" s="37"/>
     </row>
@@ -6444,7 +6444,7 @@
         <v>51</v>
       </c>
       <c r="B296" s="20">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C296" s="38" t="s">
         <v>61</v>
@@ -6455,7 +6455,7 @@
         <v>78</v>
       </c>
       <c r="B297" s="20">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C297" s="38"/>
     </row>
@@ -6464,7 +6464,7 @@
         <v>79</v>
       </c>
       <c r="B298" s="20">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="C298" s="38"/>
     </row>
@@ -6473,7 +6473,7 @@
         <v>80</v>
       </c>
       <c r="B299" s="20">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="C299" s="38"/>
     </row>
@@ -6482,7 +6482,7 @@
         <v>81</v>
       </c>
       <c r="B300" s="20">
-        <v>9999</v>
+        <v>0</v>
       </c>
       <c r="C300" s="38"/>
     </row>
@@ -6491,7 +6491,7 @@
         <v>82</v>
       </c>
       <c r="B301" s="20">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C301" s="38"/>
     </row>
@@ -6500,7 +6500,7 @@
         <v>161</v>
       </c>
       <c r="B302" s="20">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="C302" s="38"/>
     </row>
@@ -6509,7 +6509,7 @@
         <v>83</v>
       </c>
       <c r="B303" s="20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C303" s="38"/>
     </row>
@@ -6518,7 +6518,7 @@
         <v>84</v>
       </c>
       <c r="B304" s="20">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="C304" s="38"/>
     </row>
@@ -6527,7 +6527,7 @@
         <v>85</v>
       </c>
       <c r="B305" s="20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C305" s="38"/>
     </row>
@@ -6536,7 +6536,7 @@
         <v>94</v>
       </c>
       <c r="B306" s="14">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="C306" s="49" t="s">
         <v>63</v>
@@ -6550,7 +6550,7 @@
         <v>95</v>
       </c>
       <c r="B307" s="14">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="C307" s="49"/>
       <c r="D307" s="51"/>
@@ -6560,7 +6560,7 @@
         <v>96</v>
       </c>
       <c r="B308" s="14">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="C308" s="49"/>
       <c r="D308" s="51"/>
@@ -6570,7 +6570,7 @@
         <v>71</v>
       </c>
       <c r="B309" s="14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C309" s="49"/>
       <c r="D309" s="51"/>
@@ -6580,7 +6580,7 @@
         <v>72</v>
       </c>
       <c r="B310" s="14">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="C310" s="49"/>
       <c r="D310" s="51"/>
@@ -6590,7 +6590,7 @@
         <v>73</v>
       </c>
       <c r="B311" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C311" s="49"/>
       <c r="D311" s="51"/>
@@ -6600,7 +6600,7 @@
         <v>52</v>
       </c>
       <c r="B312" s="20">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C312" s="50" t="s">
         <v>62</v>
@@ -6614,7 +6614,7 @@
         <v>86</v>
       </c>
       <c r="B313" s="20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C313" s="50"/>
       <c r="D313" s="51"/>
@@ -6624,7 +6624,7 @@
         <v>87</v>
       </c>
       <c r="B314" s="20">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C314" s="50"/>
       <c r="D314" s="51"/>
@@ -6634,7 +6634,7 @@
         <v>88</v>
       </c>
       <c r="B315" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C315" s="50"/>
       <c r="D315" s="51"/>
@@ -6644,7 +6644,7 @@
         <v>89</v>
       </c>
       <c r="B316" s="20">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C316" s="50"/>
       <c r="D316" s="51"/>
@@ -6654,7 +6654,7 @@
         <v>90</v>
       </c>
       <c r="B317" s="20">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C317" s="50"/>
       <c r="D317" s="51"/>
@@ -6664,7 +6664,7 @@
         <v>162</v>
       </c>
       <c r="B318" s="20">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C318" s="50"/>
       <c r="D318" s="51"/>
@@ -6674,7 +6674,7 @@
         <v>91</v>
       </c>
       <c r="B319" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C319" s="50"/>
       <c r="D319" s="51"/>
@@ -6694,7 +6694,7 @@
         <v>93</v>
       </c>
       <c r="B321" s="20">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C321" s="50"/>
       <c r="D321" s="51"/>
@@ -6704,7 +6704,7 @@
         <v>74</v>
       </c>
       <c r="B322" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C322" s="40" t="s">
         <v>64</v>
@@ -6715,7 +6715,7 @@
         <v>97</v>
       </c>
       <c r="B323" s="14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C323" s="40"/>
     </row>
@@ -6724,7 +6724,7 @@
         <v>98</v>
       </c>
       <c r="B324" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C324" s="40"/>
     </row>
@@ -6733,7 +6733,7 @@
         <v>75</v>
       </c>
       <c r="B325" s="14">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C325" s="40"/>
     </row>
@@ -6742,7 +6742,7 @@
         <v>76</v>
       </c>
       <c r="B326" s="14">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C326" s="40"/>
     </row>
@@ -6751,7 +6751,7 @@
         <v>77</v>
       </c>
       <c r="B327" s="14">
-        <v>999</v>
+        <v>0</v>
       </c>
       <c r="C327" s="40"/>
     </row>

--- a/third-party/Input_Total.xlsx
+++ b/third-party/Input_Total.xlsx
@@ -4603,7 +4603,7 @@
         <v>131</v>
       </c>
       <c r="B98" s="14">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C98" s="40"/>
     </row>

--- a/third-party/Input_Total.xlsx
+++ b/third-party/Input_Total.xlsx
@@ -3924,7 +3924,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="15">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.6">
@@ -3940,7 +3940,7 @@
         <v>785</v>
       </c>
       <c r="B6" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:52" x14ac:dyDescent="0.6">
@@ -3956,7 +3956,7 @@
         <v>33</v>
       </c>
       <c r="B8" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:52" x14ac:dyDescent="0.6">
@@ -3964,7 +3964,7 @@
         <v>172</v>
       </c>
       <c r="B9" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:52" x14ac:dyDescent="0.6">
@@ -3980,7 +3980,7 @@
         <v>786</v>
       </c>
       <c r="B11" s="15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:52" ht="17" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -4660,7 +4660,7 @@
         <v>229</v>
       </c>
       <c r="B96" s="10">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:52" x14ac:dyDescent="0.6">
@@ -4668,7 +4668,7 @@
         <v>25</v>
       </c>
       <c r="B97" s="10">
-        <v>0</v>
+        <v>1200</v>
       </c>
     </row>
     <row r="98" spans="1:52" x14ac:dyDescent="0.6">
@@ -4676,7 +4676,7 @@
         <v>230</v>
       </c>
       <c r="B98" s="8">
-        <v>0</v>
+        <v>2.29</v>
       </c>
     </row>
     <row r="99" spans="1:52" x14ac:dyDescent="0.6">
@@ -4684,7 +4684,7 @@
         <v>231</v>
       </c>
       <c r="B99" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="100" spans="1:52" x14ac:dyDescent="0.6">
@@ -4692,7 +4692,7 @@
         <v>232</v>
       </c>
       <c r="B100" s="11">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="101" spans="1:52" x14ac:dyDescent="0.6">
@@ -4700,7 +4700,7 @@
         <v>233</v>
       </c>
       <c r="B101" s="11">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="102" spans="1:52" x14ac:dyDescent="0.6">
@@ -4708,7 +4708,7 @@
         <v>234</v>
       </c>
       <c r="B102" s="8">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="103" spans="1:52" x14ac:dyDescent="0.6">
@@ -4716,7 +4716,7 @@
         <v>235</v>
       </c>
       <c r="B103" s="4">
-        <v>0</v>
+        <v>0.03018</v>
       </c>
     </row>
     <row r="104" spans="1:52" x14ac:dyDescent="0.6">
@@ -4724,7 +4724,7 @@
         <v>236</v>
       </c>
       <c r="B104" s="4">
-        <v>0</v>
+        <v>0.03018</v>
       </c>
     </row>
     <row r="105" spans="1:52" x14ac:dyDescent="0.6">
@@ -4732,7 +4732,7 @@
         <v>237</v>
       </c>
       <c r="B105" s="4">
-        <v>0</v>
+        <v>0.0142</v>
       </c>
     </row>
     <row r="106" spans="1:52" x14ac:dyDescent="0.6">
@@ -4740,7 +4740,7 @@
         <v>238</v>
       </c>
       <c r="B106" s="4">
-        <v>0</v>
+        <v>9.779</v>
       </c>
     </row>
     <row r="107" spans="1:52" x14ac:dyDescent="0.6">
@@ -4748,7 +4748,7 @@
         <v>239</v>
       </c>
       <c r="B107" s="4">
-        <v>0</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="108" spans="1:52" x14ac:dyDescent="0.6">
@@ -4756,7 +4756,7 @@
         <v>240</v>
       </c>
       <c r="B108" s="4">
-        <v>0</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="109" spans="1:52" x14ac:dyDescent="0.6">
@@ -4764,7 +4764,7 @@
         <v>241</v>
       </c>
       <c r="B109" s="4">
-        <v>0</v>
+        <v>0.000161</v>
       </c>
     </row>
     <row r="110" spans="1:52" x14ac:dyDescent="0.6">
@@ -4772,7 +4772,7 @@
         <v>242</v>
       </c>
       <c r="B110" s="4">
-        <v>0</v>
+        <v>0.000161</v>
       </c>
     </row>
     <row r="111" spans="1:52" x14ac:dyDescent="0.6">
@@ -4780,7 +4780,7 @@
         <v>243</v>
       </c>
       <c r="B111" s="4">
-        <v>0</v>
+        <v>14.3618</v>
       </c>
     </row>
     <row r="112" spans="1:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -4788,7 +4788,7 @@
         <v>244</v>
       </c>
       <c r="B112" s="4">
-        <v>0</v>
+        <v>14.3618</v>
       </c>
     </row>
     <row r="113" spans="1:51" ht="16.899999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -5092,7 +5092,7 @@
         <v>279</v>
       </c>
       <c r="B150" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:52" x14ac:dyDescent="0.6">
@@ -5100,7 +5100,7 @@
         <v>280</v>
       </c>
       <c r="B151" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:52" x14ac:dyDescent="0.6">
@@ -5108,7 +5108,7 @@
         <v>281</v>
       </c>
       <c r="B152" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:52" x14ac:dyDescent="0.6">
@@ -5116,7 +5116,7 @@
         <v>282</v>
       </c>
       <c r="B153" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:52" x14ac:dyDescent="0.6">
@@ -5124,7 +5124,7 @@
         <v>283</v>
       </c>
       <c r="B154" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:52" x14ac:dyDescent="0.6">
@@ -5140,7 +5140,7 @@
         <v>285</v>
       </c>
       <c r="B156" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:52" x14ac:dyDescent="0.6">
@@ -5148,7 +5148,7 @@
         <v>286</v>
       </c>
       <c r="B157" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:52" x14ac:dyDescent="0.6">
@@ -5156,7 +5156,7 @@
         <v>287</v>
       </c>
       <c r="B158" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:52" x14ac:dyDescent="0.6">
@@ -5172,7 +5172,7 @@
         <v>289</v>
       </c>
       <c r="B160" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:52" x14ac:dyDescent="0.6">
@@ -5196,7 +5196,7 @@
         <v>290</v>
       </c>
       <c r="B163" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="164" spans="1:52" x14ac:dyDescent="0.6">
@@ -5204,7 +5204,7 @@
         <v>291</v>
       </c>
       <c r="B164" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="165" spans="1:52" x14ac:dyDescent="0.6">
@@ -5212,7 +5212,7 @@
         <v>292</v>
       </c>
       <c r="B165" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="166" spans="1:52" x14ac:dyDescent="0.6">
@@ -5220,7 +5220,7 @@
         <v>293</v>
       </c>
       <c r="B166" s="7">
-        <v>0</v>
+        <v>409</v>
       </c>
     </row>
     <row r="167" spans="1:52" x14ac:dyDescent="0.6">
@@ -5228,7 +5228,7 @@
         <v>294</v>
       </c>
       <c r="B167" s="7">
-        <v>0</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="168" spans="1:52" x14ac:dyDescent="0.6">
@@ -5236,7 +5236,7 @@
         <v>295</v>
       </c>
       <c r="B168" s="7">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="169" spans="1:52" x14ac:dyDescent="0.6">
@@ -5244,7 +5244,7 @@
         <v>296</v>
       </c>
       <c r="B169" s="7">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="170" spans="1:52" x14ac:dyDescent="0.6">
@@ -5252,7 +5252,7 @@
         <v>297</v>
       </c>
       <c r="B170" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="171" spans="1:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -5260,7 +5260,7 @@
         <v>298</v>
       </c>
       <c r="B171" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:52" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -5788,7 +5788,7 @@
         <v>362</v>
       </c>
       <c r="B237" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="238" spans="1:52" x14ac:dyDescent="0.6">
@@ -5796,7 +5796,7 @@
         <v>363</v>
       </c>
       <c r="B238" s="14">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="239" spans="1:52" x14ac:dyDescent="0.6">
@@ -5804,7 +5804,7 @@
         <v>364</v>
       </c>
       <c r="B239" s="16">
-        <v>0</v>
+        <v>50</v>
       </c>
     </row>
     <row r="240" spans="1:52" x14ac:dyDescent="0.6">
@@ -5812,7 +5812,7 @@
         <v>365</v>
       </c>
       <c r="B240" s="16">
-        <v>0</v>
+        <v>47</v>
       </c>
     </row>
     <row r="241" spans="1:51" x14ac:dyDescent="0.6">
@@ -5820,7 +5820,7 @@
         <v>366</v>
       </c>
       <c r="B241" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="242" spans="1:51" x14ac:dyDescent="0.6">
@@ -5836,7 +5836,7 @@
         <v>368</v>
       </c>
       <c r="B243" s="5">
-        <v>0</v>
+        <v>0.01483</v>
       </c>
     </row>
     <row r="244" spans="1:51" x14ac:dyDescent="0.6">
@@ -5844,7 +5844,7 @@
         <v>369</v>
       </c>
       <c r="B244" s="5">
-        <v>0</v>
+        <v>0.01483</v>
       </c>
     </row>
     <row r="245" spans="1:51" x14ac:dyDescent="0.6">
@@ -5852,7 +5852,7 @@
         <v>370</v>
       </c>
       <c r="B245" s="5">
-        <v>0</v>
+        <v>0.05558</v>
       </c>
     </row>
     <row r="246" spans="1:51" x14ac:dyDescent="0.6">
@@ -5860,7 +5860,7 @@
         <v>371</v>
       </c>
       <c r="B246" s="5">
-        <v>0</v>
+        <v>9.84</v>
       </c>
     </row>
     <row r="247" spans="1:51" x14ac:dyDescent="0.6">
@@ -5868,7 +5868,7 @@
         <v>372</v>
       </c>
       <c r="B247" s="5">
-        <v>0</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="248" spans="1:51" x14ac:dyDescent="0.6">
@@ -5876,7 +5876,7 @@
         <v>373</v>
       </c>
       <c r="B248" s="5">
-        <v>0</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="249" spans="1:51" x14ac:dyDescent="0.6">
@@ -5884,7 +5884,7 @@
         <v>374</v>
       </c>
       <c r="B249" s="5">
-        <v>0</v>
+        <v>0.000161</v>
       </c>
     </row>
     <row r="250" spans="1:51" x14ac:dyDescent="0.6">
@@ -5892,7 +5892,7 @@
         <v>375</v>
       </c>
       <c r="B250" s="5">
-        <v>0</v>
+        <v>0.000161</v>
       </c>
     </row>
     <row r="251" spans="1:51" x14ac:dyDescent="0.6">
@@ -5900,7 +5900,7 @@
         <v>376</v>
       </c>
       <c r="B251" s="5">
-        <v>0</v>
+        <v>14.3618</v>
       </c>
     </row>
     <row r="252" spans="1:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -5908,7 +5908,7 @@
         <v>377</v>
       </c>
       <c r="B252" s="5">
-        <v>0</v>
+        <v>14.3618</v>
       </c>
     </row>
     <row r="253" spans="1:51" x14ac:dyDescent="0.6">
@@ -5956,7 +5956,7 @@
         <v>383</v>
       </c>
       <c r="B258" s="9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="259" spans="1:52" x14ac:dyDescent="0.6">
@@ -5964,7 +5964,7 @@
         <v>384</v>
       </c>
       <c r="B259" s="14">
-        <v>0</v>
+        <v>22</v>
       </c>
     </row>
     <row r="260" spans="1:52" x14ac:dyDescent="0.6">
@@ -5972,7 +5972,7 @@
         <v>385</v>
       </c>
       <c r="B260" s="17">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="261" spans="1:52" x14ac:dyDescent="0.6">
@@ -5980,7 +5980,7 @@
         <v>386</v>
       </c>
       <c r="B261" s="17">
-        <v>0</v>
+        <v>88</v>
       </c>
     </row>
     <row r="262" spans="1:52" x14ac:dyDescent="0.6">
@@ -5996,7 +5996,7 @@
         <v>388</v>
       </c>
       <c r="B263" s="5">
-        <v>0</v>
+        <v>0.01483</v>
       </c>
     </row>
     <row r="264" spans="1:52" x14ac:dyDescent="0.6">
@@ -6004,7 +6004,7 @@
         <v>389</v>
       </c>
       <c r="B264" s="5">
-        <v>0</v>
+        <v>0.01483</v>
       </c>
     </row>
     <row r="265" spans="1:52" x14ac:dyDescent="0.6">
@@ -6012,7 +6012,7 @@
         <v>390</v>
       </c>
       <c r="B265" s="5">
-        <v>0</v>
+        <v>0.05558</v>
       </c>
     </row>
     <row r="266" spans="1:52" x14ac:dyDescent="0.6">
@@ -6020,7 +6020,7 @@
         <v>391</v>
       </c>
       <c r="B266" s="5">
-        <v>0</v>
+        <v>9.84</v>
       </c>
     </row>
     <row r="267" spans="1:52" x14ac:dyDescent="0.6">
@@ -6028,7 +6028,7 @@
         <v>392</v>
       </c>
       <c r="B267" s="5">
-        <v>0</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="268" spans="1:52" x14ac:dyDescent="0.6">
@@ -6036,7 +6036,7 @@
         <v>393</v>
       </c>
       <c r="B268" s="5">
-        <v>0</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="269" spans="1:52" x14ac:dyDescent="0.6">
@@ -6044,7 +6044,7 @@
         <v>394</v>
       </c>
       <c r="B269" s="5">
-        <v>0</v>
+        <v>0.000161</v>
       </c>
     </row>
     <row r="270" spans="1:52" x14ac:dyDescent="0.6">
@@ -6052,7 +6052,7 @@
         <v>395</v>
       </c>
       <c r="B270" s="5">
-        <v>0</v>
+        <v>0.000161</v>
       </c>
     </row>
     <row r="271" spans="1:52" x14ac:dyDescent="0.6">
@@ -6060,7 +6060,7 @@
         <v>396</v>
       </c>
       <c r="B271" s="5">
-        <v>0</v>
+        <v>14.3618</v>
       </c>
     </row>
     <row r="272" spans="1:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -6068,7 +6068,7 @@
         <v>397</v>
       </c>
       <c r="B272" s="5">
-        <v>0</v>
+        <v>14.3618</v>
       </c>
     </row>
     <row r="273" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6116,7 +6116,7 @@
         <v>403</v>
       </c>
       <c r="B278" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="279" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6124,7 +6124,7 @@
         <v>404</v>
       </c>
       <c r="B279" s="1">
-        <v>0</v>
+        <v>0.01483</v>
       </c>
     </row>
     <row r="280" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6132,7 +6132,7 @@
         <v>405</v>
       </c>
       <c r="B280" s="1">
-        <v>0</v>
+        <v>0.01483</v>
       </c>
     </row>
     <row r="281" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6140,7 +6140,7 @@
         <v>406</v>
       </c>
       <c r="B281" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="282" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6148,7 +6148,7 @@
         <v>407</v>
       </c>
       <c r="B282" s="1">
-        <v>0</v>
+        <v>0.01483</v>
       </c>
     </row>
     <row r="283" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6156,7 +6156,7 @@
         <v>408</v>
       </c>
       <c r="B283" s="1">
-        <v>0</v>
+        <v>0.01483</v>
       </c>
     </row>
     <row r="284" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6164,7 +6164,7 @@
         <v>409</v>
       </c>
       <c r="B284" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="285" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6172,7 +6172,7 @@
         <v>410</v>
       </c>
       <c r="B285" s="1">
-        <v>0</v>
+        <v>0.01483</v>
       </c>
     </row>
     <row r="286" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6180,7 +6180,7 @@
         <v>411</v>
       </c>
       <c r="B286" s="1">
-        <v>0</v>
+        <v>0.01483</v>
       </c>
     </row>
     <row r="287" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6188,7 +6188,7 @@
         <v>412</v>
       </c>
       <c r="B287" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="288" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6196,7 +6196,7 @@
         <v>413</v>
       </c>
       <c r="B288" s="1">
-        <v>0</v>
+        <v>0.01483</v>
       </c>
     </row>
     <row r="289" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6204,7 +6204,7 @@
         <v>414</v>
       </c>
       <c r="B289" s="1">
-        <v>0</v>
+        <v>0.01483</v>
       </c>
     </row>
     <row r="290" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6212,7 +6212,7 @@
         <v>415</v>
       </c>
       <c r="B290" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="291" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6220,7 +6220,7 @@
         <v>416</v>
       </c>
       <c r="B291" s="1">
-        <v>0</v>
+        <v>0.01483</v>
       </c>
     </row>
     <row r="292" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6228,7 +6228,7 @@
         <v>417</v>
       </c>
       <c r="B292" s="1">
-        <v>0</v>
+        <v>0.01483</v>
       </c>
     </row>
     <row r="293" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6236,7 +6236,7 @@
         <v>418</v>
       </c>
       <c r="B293" s="1">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="294" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6244,7 +6244,7 @@
         <v>419</v>
       </c>
       <c r="B294" s="1">
-        <v>0</v>
+        <v>0.01483</v>
       </c>
     </row>
     <row r="295" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6252,7 +6252,7 @@
         <v>420</v>
       </c>
       <c r="B295" s="1">
-        <v>0</v>
+        <v>0.01483</v>
       </c>
     </row>
     <row r="296" spans="1:51" collapsed="1" x14ac:dyDescent="0.6">
@@ -6260,7 +6260,7 @@
         <v>421</v>
       </c>
       <c r="B296" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="297" spans="1:51" x14ac:dyDescent="0.6">
@@ -6268,7 +6268,7 @@
         <v>422</v>
       </c>
       <c r="B297" s="6">
-        <v>0</v>
+        <v>70</v>
       </c>
     </row>
     <row r="298" spans="1:51" x14ac:dyDescent="0.6">
@@ -6276,7 +6276,7 @@
         <v>423</v>
       </c>
       <c r="B298" s="6">
-        <v>0</v>
+        <v>-36.5</v>
       </c>
     </row>
     <row r="299" spans="1:51" x14ac:dyDescent="0.6">
@@ -6284,7 +6284,7 @@
         <v>424</v>
       </c>
       <c r="B299" s="6">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="300" spans="1:51" x14ac:dyDescent="0.6">
@@ -6292,7 +6292,7 @@
         <v>425</v>
       </c>
       <c r="B300" s="13">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="301" spans="1:51" x14ac:dyDescent="0.6">
@@ -6300,7 +6300,7 @@
         <v>426</v>
       </c>
       <c r="B301" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="302" spans="1:51" x14ac:dyDescent="0.6">
@@ -6316,7 +6316,7 @@
         <v>427</v>
       </c>
       <c r="B303" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="304" spans="1:51" x14ac:dyDescent="0.6">
@@ -6332,7 +6332,7 @@
         <v>429</v>
       </c>
       <c r="B305" s="6">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="306" spans="1:51" x14ac:dyDescent="0.6">
@@ -6340,7 +6340,7 @@
         <v>430</v>
       </c>
       <c r="B306" s="4">
-        <v>0</v>
+        <v>12</v>
       </c>
     </row>
     <row r="307" spans="1:51" x14ac:dyDescent="0.6">
@@ -6364,7 +6364,7 @@
         <v>433</v>
       </c>
       <c r="B309" s="12">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="310" spans="1:51" x14ac:dyDescent="0.6">
@@ -6372,7 +6372,7 @@
         <v>434</v>
       </c>
       <c r="B310" s="12">
-        <v>0</v>
+        <v>95</v>
       </c>
     </row>
     <row r="311" spans="1:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -6380,7 +6380,7 @@
         <v>435</v>
       </c>
       <c r="B311" s="4">
-        <v>0</v>
+        <v>999</v>
       </c>
     </row>
     <row r="312" spans="1:51" x14ac:dyDescent="0.6">

--- a/third-party/Input_Total.xlsx
+++ b/third-party/Input_Total.xlsx
@@ -3900,7 +3900,7 @@
         <v>835</v>
       </c>
       <c r="B1" s="111">
-        <v>4050</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.6">
@@ -4916,7 +4916,7 @@
         <v>260</v>
       </c>
       <c r="B128" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:52" x14ac:dyDescent="0.6">
@@ -4924,7 +4924,7 @@
         <v>261</v>
       </c>
       <c r="B129" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:52" x14ac:dyDescent="0.6">
@@ -4932,7 +4932,7 @@
         <v>262</v>
       </c>
       <c r="B130" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:52" x14ac:dyDescent="0.6">
@@ -4940,7 +4940,7 @@
         <v>263</v>
       </c>
       <c r="B131" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:52" x14ac:dyDescent="0.6">
@@ -4948,7 +4948,7 @@
         <v>264</v>
       </c>
       <c r="B132" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:52" x14ac:dyDescent="0.6">
@@ -4964,7 +4964,7 @@
         <v>266</v>
       </c>
       <c r="B134" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:52" x14ac:dyDescent="0.6">
@@ -4972,7 +4972,7 @@
         <v>267</v>
       </c>
       <c r="B135" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:52" x14ac:dyDescent="0.6">
@@ -4980,7 +4980,7 @@
         <v>268</v>
       </c>
       <c r="B136" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:52" x14ac:dyDescent="0.6">
@@ -4996,7 +4996,7 @@
         <v>270</v>
       </c>
       <c r="B138" s="22">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:52" x14ac:dyDescent="0.6">
@@ -5004,7 +5004,7 @@
         <v>271</v>
       </c>
       <c r="B139" s="23">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:52" x14ac:dyDescent="0.6">
@@ -5012,7 +5012,7 @@
         <v>272</v>
       </c>
       <c r="B140" s="23">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:52" x14ac:dyDescent="0.6">
@@ -5020,7 +5020,7 @@
         <v>26</v>
       </c>
       <c r="B141" s="23">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:52" x14ac:dyDescent="0.6">
@@ -5028,7 +5028,7 @@
         <v>273</v>
       </c>
       <c r="B142" s="23">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:52" x14ac:dyDescent="0.6">
@@ -5036,7 +5036,7 @@
         <v>27</v>
       </c>
       <c r="B143" s="23">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:52" x14ac:dyDescent="0.6">
@@ -5044,7 +5044,7 @@
         <v>274</v>
       </c>
       <c r="B144" s="20">
-        <v>409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:52" x14ac:dyDescent="0.6">
@@ -5052,7 +5052,7 @@
         <v>28</v>
       </c>
       <c r="B145" s="20">
-        <v>0.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:52" x14ac:dyDescent="0.6">
@@ -5060,7 +5060,7 @@
         <v>275</v>
       </c>
       <c r="B146" s="20">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:52" x14ac:dyDescent="0.6">
@@ -5068,7 +5068,7 @@
         <v>276</v>
       </c>
       <c r="B147" s="20">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:52" x14ac:dyDescent="0.6">
@@ -5076,7 +5076,7 @@
         <v>277</v>
       </c>
       <c r="B148" s="20">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -5084,7 +5084,7 @@
         <v>278</v>
       </c>
       <c r="B149" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:52" x14ac:dyDescent="0.6">
@@ -5092,7 +5092,7 @@
         <v>279</v>
       </c>
       <c r="B150" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:52" x14ac:dyDescent="0.6">
@@ -5100,7 +5100,7 @@
         <v>280</v>
       </c>
       <c r="B151" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:52" x14ac:dyDescent="0.6">
@@ -5108,7 +5108,7 @@
         <v>281</v>
       </c>
       <c r="B152" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:52" x14ac:dyDescent="0.6">
@@ -5116,7 +5116,7 @@
         <v>282</v>
       </c>
       <c r="B153" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:52" x14ac:dyDescent="0.6">
@@ -5124,7 +5124,7 @@
         <v>283</v>
       </c>
       <c r="B154" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:52" x14ac:dyDescent="0.6">
@@ -5140,7 +5140,7 @@
         <v>285</v>
       </c>
       <c r="B156" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:52" x14ac:dyDescent="0.6">
@@ -5148,7 +5148,7 @@
         <v>286</v>
       </c>
       <c r="B157" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:52" x14ac:dyDescent="0.6">
@@ -5156,7 +5156,7 @@
         <v>287</v>
       </c>
       <c r="B158" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:52" x14ac:dyDescent="0.6">
@@ -5172,7 +5172,7 @@
         <v>289</v>
       </c>
       <c r="B160" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:52" x14ac:dyDescent="0.6">
@@ -5180,7 +5180,7 @@
         <v>165</v>
       </c>
       <c r="B161" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162" spans="1:52" x14ac:dyDescent="0.6">
@@ -5188,7 +5188,7 @@
         <v>166</v>
       </c>
       <c r="B162" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163" spans="1:52" x14ac:dyDescent="0.6">
@@ -5196,7 +5196,7 @@
         <v>290</v>
       </c>
       <c r="B163" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="164" spans="1:52" x14ac:dyDescent="0.6">
@@ -5204,7 +5204,7 @@
         <v>291</v>
       </c>
       <c r="B164" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="165" spans="1:52" x14ac:dyDescent="0.6">
@@ -5212,7 +5212,7 @@
         <v>292</v>
       </c>
       <c r="B165" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="166" spans="1:52" x14ac:dyDescent="0.6">
@@ -5220,7 +5220,7 @@
         <v>293</v>
       </c>
       <c r="B166" s="7">
-        <v>0</v>
+        <v>409</v>
       </c>
     </row>
     <row r="167" spans="1:52" x14ac:dyDescent="0.6">
@@ -5228,7 +5228,7 @@
         <v>294</v>
       </c>
       <c r="B167" s="7">
-        <v>0</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="168" spans="1:52" x14ac:dyDescent="0.6">
@@ -5236,7 +5236,7 @@
         <v>295</v>
       </c>
       <c r="B168" s="7">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="169" spans="1:52" x14ac:dyDescent="0.6">
@@ -5244,7 +5244,7 @@
         <v>296</v>
       </c>
       <c r="B169" s="7">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="170" spans="1:52" x14ac:dyDescent="0.6">
@@ -5252,7 +5252,7 @@
         <v>297</v>
       </c>
       <c r="B170" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="171" spans="1:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -5260,7 +5260,7 @@
         <v>298</v>
       </c>
       <c r="B171" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:52" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -5620,7 +5620,7 @@
         <v>342</v>
       </c>
       <c r="B216" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:52" x14ac:dyDescent="0.6">
@@ -5628,7 +5628,7 @@
         <v>343</v>
       </c>
       <c r="B217" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:52" x14ac:dyDescent="0.6">
@@ -5636,7 +5636,7 @@
         <v>344</v>
       </c>
       <c r="B218" s="29">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:52" x14ac:dyDescent="0.6">
@@ -5644,7 +5644,7 @@
         <v>345</v>
       </c>
       <c r="B219" s="29">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:52" x14ac:dyDescent="0.6">
@@ -5652,7 +5652,7 @@
         <v>48</v>
       </c>
       <c r="B220" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:52" x14ac:dyDescent="0.6">
@@ -5668,7 +5668,7 @@
         <v>347</v>
       </c>
       <c r="B222" s="27">
-        <v>0.01483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:52" x14ac:dyDescent="0.6">
@@ -5676,7 +5676,7 @@
         <v>348</v>
       </c>
       <c r="B223" s="27">
-        <v>0.01483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:52" x14ac:dyDescent="0.6">
@@ -5684,7 +5684,7 @@
         <v>349</v>
       </c>
       <c r="B224" s="27">
-        <v>0.0294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:52" x14ac:dyDescent="0.6">
@@ -5692,7 +5692,7 @@
         <v>350</v>
       </c>
       <c r="B225" s="27">
-        <v>6.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:52" x14ac:dyDescent="0.6">
@@ -5700,7 +5700,7 @@
         <v>351</v>
       </c>
       <c r="B226" s="27">
-        <v>7900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:52" x14ac:dyDescent="0.6">
@@ -5708,7 +5708,7 @@
         <v>352</v>
       </c>
       <c r="B227" s="27">
-        <v>7900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:52" x14ac:dyDescent="0.6">
@@ -5716,7 +5716,7 @@
         <v>353</v>
       </c>
       <c r="B228" s="27">
-        <v>0.000161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:52" x14ac:dyDescent="0.6">
@@ -5724,7 +5724,7 @@
         <v>354</v>
       </c>
       <c r="B229" s="27">
-        <v>0.000161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:52" x14ac:dyDescent="0.6">
@@ -5732,7 +5732,7 @@
         <v>355</v>
       </c>
       <c r="B230" s="27">
-        <v>14.3618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -5740,7 +5740,7 @@
         <v>356</v>
       </c>
       <c r="B231" s="27">
-        <v>14.3618</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:52" x14ac:dyDescent="0.6">
@@ -5796,7 +5796,7 @@
         <v>363</v>
       </c>
       <c r="B238" s="14">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="239" spans="1:52" x14ac:dyDescent="0.6">
@@ -5964,7 +5964,7 @@
         <v>384</v>
       </c>
       <c r="B259" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="260" spans="1:52" x14ac:dyDescent="0.6">
@@ -6292,7 +6292,7 @@
         <v>425</v>
       </c>
       <c r="B300" s="13">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="301" spans="1:51" x14ac:dyDescent="0.6">
@@ -6340,7 +6340,7 @@
         <v>430</v>
       </c>
       <c r="B306" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="307" spans="1:51" x14ac:dyDescent="0.6">
@@ -6364,7 +6364,7 @@
         <v>433</v>
       </c>
       <c r="B309" s="12">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="310" spans="1:51" x14ac:dyDescent="0.6">
@@ -6388,7 +6388,7 @@
         <v>436</v>
       </c>
       <c r="B312" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:51" x14ac:dyDescent="0.6">
@@ -6396,7 +6396,7 @@
         <v>437</v>
       </c>
       <c r="B313" s="6">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:51" x14ac:dyDescent="0.6">
@@ -6404,7 +6404,7 @@
         <v>438</v>
       </c>
       <c r="B314" s="6">
-        <v>-36.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:51" x14ac:dyDescent="0.6">
@@ -6412,7 +6412,7 @@
         <v>439</v>
       </c>
       <c r="B315" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:51" x14ac:dyDescent="0.6">
@@ -6420,7 +6420,7 @@
         <v>440</v>
       </c>
       <c r="B316" s="24">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:51" x14ac:dyDescent="0.6">
@@ -6428,7 +6428,7 @@
         <v>441</v>
       </c>
       <c r="B317" s="6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:51" x14ac:dyDescent="0.6">
@@ -6436,7 +6436,7 @@
         <v>442</v>
       </c>
       <c r="B318" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:51" x14ac:dyDescent="0.6">
@@ -6444,7 +6444,7 @@
         <v>443</v>
       </c>
       <c r="B319" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:51" x14ac:dyDescent="0.6">
@@ -6460,7 +6460,7 @@
         <v>445</v>
       </c>
       <c r="B321" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:52" x14ac:dyDescent="0.6">
@@ -6468,7 +6468,7 @@
         <v>446</v>
       </c>
       <c r="B322" s="25">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:52" x14ac:dyDescent="0.6">
@@ -6492,7 +6492,7 @@
         <v>449</v>
       </c>
       <c r="B325" s="26">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:52" x14ac:dyDescent="0.6">
@@ -6500,7 +6500,7 @@
         <v>450</v>
       </c>
       <c r="B326" s="26">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -6508,7 +6508,7 @@
         <v>451</v>
       </c>
       <c r="B327" s="4">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:52" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">

--- a/third-party/Input_Total.xlsx
+++ b/third-party/Input_Total.xlsx
@@ -3900,7 +3900,7 @@
         <v>835</v>
       </c>
       <c r="B1" s="111">
-        <v>1012</v>
+        <v>4050</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.6">

--- a/third-party/Input_Total.xlsx
+++ b/third-party/Input_Total.xlsx
@@ -3900,7 +3900,7 @@
         <v>835</v>
       </c>
       <c r="B1" s="111">
-        <v>1012</v>
+        <v>4110</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.6">
@@ -5620,7 +5620,7 @@
         <v>342</v>
       </c>
       <c r="B216" s="27">
-        <v>0</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="217" spans="1:52" x14ac:dyDescent="0.6">
@@ -5628,7 +5628,7 @@
         <v>343</v>
       </c>
       <c r="B217" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="218" spans="1:52" x14ac:dyDescent="0.6">
@@ -5636,7 +5636,7 @@
         <v>344</v>
       </c>
       <c r="B218" s="29">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="219" spans="1:52" x14ac:dyDescent="0.6">
@@ -5644,7 +5644,7 @@
         <v>345</v>
       </c>
       <c r="B219" s="29">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="220" spans="1:52" x14ac:dyDescent="0.6">
@@ -5652,7 +5652,7 @@
         <v>48</v>
       </c>
       <c r="B220" s="27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="221" spans="1:52" x14ac:dyDescent="0.6">
@@ -5660,7 +5660,7 @@
         <v>346</v>
       </c>
       <c r="B221" s="27">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="222" spans="1:52" x14ac:dyDescent="0.6">
@@ -5668,7 +5668,7 @@
         <v>347</v>
       </c>
       <c r="B222" s="27">
-        <v>0</v>
+        <v>0.01483</v>
       </c>
     </row>
     <row r="223" spans="1:52" x14ac:dyDescent="0.6">
@@ -5676,7 +5676,7 @@
         <v>348</v>
       </c>
       <c r="B223" s="27">
-        <v>0</v>
+        <v>0.01483</v>
       </c>
     </row>
     <row r="224" spans="1:52" x14ac:dyDescent="0.6">
@@ -5684,15 +5684,17 @@
         <v>349</v>
       </c>
       <c r="B224" s="27">
-        <v>0</v>
+        <v>0.0294</v>
       </c>
     </row>
     <row r="225" spans="1:52" x14ac:dyDescent="0.6">
       <c r="A225" s="79" t="s">
         <v>350</v>
       </c>
-      <c r="B225" s="27">
-        <v>0</v>
+      <c r="B225" s="27" t="inlineStr">
+        <is>
+          <t>6,.25</t>
+        </is>
       </c>
     </row>
     <row r="226" spans="1:52" x14ac:dyDescent="0.6">
@@ -5700,7 +5702,7 @@
         <v>351</v>
       </c>
       <c r="B226" s="27">
-        <v>0</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="227" spans="1:52" x14ac:dyDescent="0.6">
@@ -5708,7 +5710,7 @@
         <v>352</v>
       </c>
       <c r="B227" s="27">
-        <v>0</v>
+        <v>7900</v>
       </c>
     </row>
     <row r="228" spans="1:52" x14ac:dyDescent="0.6">
@@ -5716,7 +5718,7 @@
         <v>353</v>
       </c>
       <c r="B228" s="27">
-        <v>0</v>
+        <v>0.000161</v>
       </c>
     </row>
     <row r="229" spans="1:52" x14ac:dyDescent="0.6">
@@ -5724,7 +5726,7 @@
         <v>354</v>
       </c>
       <c r="B229" s="27">
-        <v>0</v>
+        <v>0.000161</v>
       </c>
     </row>
     <row r="230" spans="1:52" x14ac:dyDescent="0.6">
@@ -5732,7 +5734,7 @@
         <v>355</v>
       </c>
       <c r="B230" s="27">
-        <v>0</v>
+        <v>14.3618</v>
       </c>
     </row>
     <row r="231" spans="1:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -5740,7 +5742,7 @@
         <v>356</v>
       </c>
       <c r="B231" s="27">
-        <v>0</v>
+        <v>14.3618</v>
       </c>
     </row>
     <row r="232" spans="1:52" x14ac:dyDescent="0.6">
@@ -5748,7 +5750,7 @@
         <v>357</v>
       </c>
       <c r="B232" s="7">
-        <v>0</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="233" spans="1:52" x14ac:dyDescent="0.6">
@@ -5756,7 +5758,7 @@
         <v>358</v>
       </c>
       <c r="B233" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="234" spans="1:52" x14ac:dyDescent="0.6">
@@ -5764,7 +5766,7 @@
         <v>359</v>
       </c>
       <c r="B234" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="235" spans="1:52" x14ac:dyDescent="0.6">
@@ -5772,7 +5774,7 @@
         <v>360</v>
       </c>
       <c r="B235" s="7">
-        <v>0</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="236" spans="1:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -5780,7 +5782,7 @@
         <v>361</v>
       </c>
       <c r="B236" s="7">
-        <v>0</v>
+        <v>865</v>
       </c>
     </row>
     <row r="237" spans="1:52" x14ac:dyDescent="0.6">
@@ -6292,7 +6294,7 @@
         <v>425</v>
       </c>
       <c r="B300" s="13">
-        <v>180</v>
+        <v>150</v>
       </c>
     </row>
     <row r="301" spans="1:51" x14ac:dyDescent="0.6">
@@ -6340,7 +6342,7 @@
         <v>430</v>
       </c>
       <c r="B306" s="4">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="307" spans="1:51" x14ac:dyDescent="0.6">
@@ -6364,7 +6366,7 @@
         <v>433</v>
       </c>
       <c r="B309" s="12">
-        <v>0.5</v>
+        <v>5</v>
       </c>
     </row>
     <row r="310" spans="1:51" x14ac:dyDescent="0.6">

--- a/third-party/Input_Total.xlsx
+++ b/third-party/Input_Total.xlsx
@@ -3900,7 +3900,7 @@
         <v>835</v>
       </c>
       <c r="B1" s="111">
-        <v>4050</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.6">
@@ -6292,7 +6292,7 @@
         <v>425</v>
       </c>
       <c r="B300" s="13">
-        <v>150</v>
+        <v>180</v>
       </c>
     </row>
     <row r="301" spans="1:51" x14ac:dyDescent="0.6">
@@ -6340,7 +6340,7 @@
         <v>430</v>
       </c>
       <c r="B306" s="4">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="307" spans="1:51" x14ac:dyDescent="0.6">
@@ -6364,7 +6364,7 @@
         <v>433</v>
       </c>
       <c r="B309" s="12">
-        <v>5</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="310" spans="1:51" x14ac:dyDescent="0.6">

--- a/third-party/Input_Total.xlsx
+++ b/third-party/Input_Total.xlsx
@@ -3924,7 +3924,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="15">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.6">
@@ -3972,7 +3972,7 @@
         <v>67</v>
       </c>
       <c r="B10" s="3">
-        <v>400</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -4764,7 +4764,7 @@
         <v>241</v>
       </c>
       <c r="B109" s="4">
-        <v>0.000161</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="110" spans="1:52" x14ac:dyDescent="0.6">
@@ -4772,7 +4772,7 @@
         <v>242</v>
       </c>
       <c r="B110" s="4">
-        <v>0.000161</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="111" spans="1:52" x14ac:dyDescent="0.6">
@@ -4780,7 +4780,7 @@
         <v>243</v>
       </c>
       <c r="B111" s="4">
-        <v>14.3618</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="112" spans="1:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -4788,7 +4788,7 @@
         <v>244</v>
       </c>
       <c r="B112" s="4">
-        <v>14.3618</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="113" spans="1:51" ht="16.899999999999999" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -5716,7 +5716,7 @@
         <v>353</v>
       </c>
       <c r="B228" s="27">
-        <v>0.000161</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="229" spans="1:52" x14ac:dyDescent="0.6">
@@ -5724,7 +5724,7 @@
         <v>354</v>
       </c>
       <c r="B229" s="27">
-        <v>0.000161</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="230" spans="1:52" x14ac:dyDescent="0.6">
@@ -5732,7 +5732,7 @@
         <v>355</v>
       </c>
       <c r="B230" s="27">
-        <v>14.3618</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="231" spans="1:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -5740,7 +5740,7 @@
         <v>356</v>
       </c>
       <c r="B231" s="27">
-        <v>14.3618</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="232" spans="1:52" x14ac:dyDescent="0.6">
@@ -5884,7 +5884,7 @@
         <v>374</v>
       </c>
       <c r="B249" s="5">
-        <v>0.000161</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="250" spans="1:51" x14ac:dyDescent="0.6">
@@ -5892,7 +5892,7 @@
         <v>375</v>
       </c>
       <c r="B250" s="5">
-        <v>0.000161</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="251" spans="1:51" x14ac:dyDescent="0.6">
@@ -5900,7 +5900,7 @@
         <v>376</v>
       </c>
       <c r="B251" s="5">
-        <v>14.3618</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="252" spans="1:51" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -5908,7 +5908,7 @@
         <v>377</v>
       </c>
       <c r="B252" s="5">
-        <v>14.3618</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="253" spans="1:51" x14ac:dyDescent="0.6">
@@ -6044,7 +6044,7 @@
         <v>394</v>
       </c>
       <c r="B269" s="5">
-        <v>0.000161</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="270" spans="1:52" x14ac:dyDescent="0.6">
@@ -6052,7 +6052,7 @@
         <v>395</v>
       </c>
       <c r="B270" s="5">
-        <v>0.000161</v>
+        <v>0.053</v>
       </c>
     </row>
     <row r="271" spans="1:52" x14ac:dyDescent="0.6">
@@ -6060,7 +6060,7 @@
         <v>396</v>
       </c>
       <c r="B271" s="5">
-        <v>14.3618</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="272" spans="1:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -6068,7 +6068,7 @@
         <v>397</v>
       </c>
       <c r="B272" s="5">
-        <v>14.3618</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="273" spans="1:51" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -6292,7 +6292,7 @@
         <v>425</v>
       </c>
       <c r="B300" s="13">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:51" x14ac:dyDescent="0.6">
@@ -6420,7 +6420,7 @@
         <v>440</v>
       </c>
       <c r="B316" s="24">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:51" x14ac:dyDescent="0.6">

--- a/third-party/Input_Total.xlsx
+++ b/third-party/Input_Total.xlsx
@@ -3900,7 +3900,7 @@
         <v>835</v>
       </c>
       <c r="B1" s="111">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="2" spans="1:52" ht="19.5" customHeight="1" x14ac:dyDescent="0.6">
@@ -3924,7 +3924,7 @@
         <v>30</v>
       </c>
       <c r="B4" s="15">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:52" x14ac:dyDescent="0.6">
@@ -3972,7 +3972,7 @@
         <v>67</v>
       </c>
       <c r="B10" s="3">
-        <v>60</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -4676,7 +4676,7 @@
         <v>230</v>
       </c>
       <c r="B98" s="8">
-        <v>2.29</v>
+        <v>11</v>
       </c>
     </row>
     <row r="99" spans="1:52" x14ac:dyDescent="0.6">
@@ -4916,7 +4916,7 @@
         <v>260</v>
       </c>
       <c r="B128" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:52" x14ac:dyDescent="0.6">
@@ -4924,7 +4924,7 @@
         <v>261</v>
       </c>
       <c r="B129" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:52" x14ac:dyDescent="0.6">
@@ -4932,7 +4932,7 @@
         <v>262</v>
       </c>
       <c r="B130" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:52" x14ac:dyDescent="0.6">
@@ -4940,7 +4940,7 @@
         <v>263</v>
       </c>
       <c r="B131" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:52" x14ac:dyDescent="0.6">
@@ -4948,7 +4948,7 @@
         <v>264</v>
       </c>
       <c r="B132" s="21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:52" x14ac:dyDescent="0.6">
@@ -4964,7 +4964,7 @@
         <v>266</v>
       </c>
       <c r="B134" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:52" x14ac:dyDescent="0.6">
@@ -4972,7 +4972,7 @@
         <v>267</v>
       </c>
       <c r="B135" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:52" x14ac:dyDescent="0.6">
@@ -4980,7 +4980,7 @@
         <v>268</v>
       </c>
       <c r="B136" s="20">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:52" x14ac:dyDescent="0.6">
@@ -4996,7 +4996,7 @@
         <v>270</v>
       </c>
       <c r="B138" s="22">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:52" x14ac:dyDescent="0.6">
@@ -5004,7 +5004,7 @@
         <v>271</v>
       </c>
       <c r="B139" s="23">
-        <v>18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:52" x14ac:dyDescent="0.6">
@@ -5012,7 +5012,7 @@
         <v>272</v>
       </c>
       <c r="B140" s="23">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:52" x14ac:dyDescent="0.6">
@@ -5020,7 +5020,7 @@
         <v>26</v>
       </c>
       <c r="B141" s="23">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:52" x14ac:dyDescent="0.6">
@@ -5028,7 +5028,7 @@
         <v>273</v>
       </c>
       <c r="B142" s="23">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:52" x14ac:dyDescent="0.6">
@@ -5036,7 +5036,7 @@
         <v>27</v>
       </c>
       <c r="B143" s="23">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:52" x14ac:dyDescent="0.6">
@@ -5044,7 +5044,7 @@
         <v>274</v>
       </c>
       <c r="B144" s="20">
-        <v>409</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:52" x14ac:dyDescent="0.6">
@@ -5052,7 +5052,7 @@
         <v>28</v>
       </c>
       <c r="B145" s="20">
-        <v>0.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:52" x14ac:dyDescent="0.6">
@@ -5060,7 +5060,7 @@
         <v>275</v>
       </c>
       <c r="B146" s="20">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:52" x14ac:dyDescent="0.6">
@@ -5068,7 +5068,7 @@
         <v>276</v>
       </c>
       <c r="B147" s="20">
-        <v>0.925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:52" x14ac:dyDescent="0.6">
@@ -5076,7 +5076,7 @@
         <v>277</v>
       </c>
       <c r="B148" s="20">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -5084,7 +5084,7 @@
         <v>278</v>
       </c>
       <c r="B149" s="20">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:52" x14ac:dyDescent="0.6">
@@ -5092,7 +5092,7 @@
         <v>279</v>
       </c>
       <c r="B150" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:52" x14ac:dyDescent="0.6">
@@ -5100,7 +5100,7 @@
         <v>280</v>
       </c>
       <c r="B151" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:52" x14ac:dyDescent="0.6">
@@ -5108,7 +5108,7 @@
         <v>281</v>
       </c>
       <c r="B152" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:52" x14ac:dyDescent="0.6">
@@ -5116,7 +5116,7 @@
         <v>282</v>
       </c>
       <c r="B153" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:52" x14ac:dyDescent="0.6">
@@ -5124,7 +5124,7 @@
         <v>283</v>
       </c>
       <c r="B154" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:52" x14ac:dyDescent="0.6">
@@ -5140,7 +5140,7 @@
         <v>285</v>
       </c>
       <c r="B156" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:52" x14ac:dyDescent="0.6">
@@ -5148,7 +5148,7 @@
         <v>286</v>
       </c>
       <c r="B157" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:52" x14ac:dyDescent="0.6">
@@ -5156,7 +5156,7 @@
         <v>287</v>
       </c>
       <c r="B158" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:52" x14ac:dyDescent="0.6">
@@ -5172,7 +5172,7 @@
         <v>289</v>
       </c>
       <c r="B160" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="161" spans="1:52" x14ac:dyDescent="0.6">
@@ -5180,7 +5180,7 @@
         <v>165</v>
       </c>
       <c r="B161" s="7">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="162" spans="1:52" x14ac:dyDescent="0.6">
@@ -5188,7 +5188,7 @@
         <v>166</v>
       </c>
       <c r="B162" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="163" spans="1:52" x14ac:dyDescent="0.6">
@@ -5196,7 +5196,7 @@
         <v>290</v>
       </c>
       <c r="B163" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="164" spans="1:52" x14ac:dyDescent="0.6">
@@ -5204,7 +5204,7 @@
         <v>291</v>
       </c>
       <c r="B164" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="165" spans="1:52" x14ac:dyDescent="0.6">
@@ -5212,7 +5212,7 @@
         <v>292</v>
       </c>
       <c r="B165" s="7">
-        <v>0</v>
+        <v>45</v>
       </c>
     </row>
     <row r="166" spans="1:52" x14ac:dyDescent="0.6">
@@ -5220,7 +5220,7 @@
         <v>293</v>
       </c>
       <c r="B166" s="7">
-        <v>0</v>
+        <v>409</v>
       </c>
     </row>
     <row r="167" spans="1:52" x14ac:dyDescent="0.6">
@@ -5228,7 +5228,7 @@
         <v>294</v>
       </c>
       <c r="B167" s="7">
-        <v>0</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="168" spans="1:52" x14ac:dyDescent="0.6">
@@ -5236,7 +5236,7 @@
         <v>295</v>
       </c>
       <c r="B168" s="7">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="169" spans="1:52" x14ac:dyDescent="0.6">
@@ -5244,7 +5244,7 @@
         <v>296</v>
       </c>
       <c r="B169" s="7">
-        <v>0</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="170" spans="1:52" x14ac:dyDescent="0.6">
@@ -5252,7 +5252,7 @@
         <v>297</v>
       </c>
       <c r="B170" s="7">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="171" spans="1:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -5260,7 +5260,7 @@
         <v>298</v>
       </c>
       <c r="B171" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="172" spans="1:52" ht="16.899999999999999" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.6">
@@ -5620,7 +5620,7 @@
         <v>342</v>
       </c>
       <c r="B216" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:52" x14ac:dyDescent="0.6">
@@ -5628,7 +5628,7 @@
         <v>343</v>
       </c>
       <c r="B217" s="28">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:52" x14ac:dyDescent="0.6">
@@ -5636,7 +5636,7 @@
         <v>344</v>
       </c>
       <c r="B218" s="29">
-        <v>25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:52" x14ac:dyDescent="0.6">
@@ -5644,7 +5644,7 @@
         <v>345</v>
       </c>
       <c r="B219" s="29">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:52" x14ac:dyDescent="0.6">
@@ -5652,7 +5652,7 @@
         <v>48</v>
       </c>
       <c r="B220" s="27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:52" x14ac:dyDescent="0.6">
@@ -5668,7 +5668,7 @@
         <v>347</v>
       </c>
       <c r="B222" s="27">
-        <v>0.01483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:52" x14ac:dyDescent="0.6">
@@ -5676,7 +5676,7 @@
         <v>348</v>
       </c>
       <c r="B223" s="27">
-        <v>0.01483</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:52" x14ac:dyDescent="0.6">
@@ -5684,7 +5684,7 @@
         <v>349</v>
       </c>
       <c r="B224" s="27">
-        <v>0.0294</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:52" x14ac:dyDescent="0.6">
@@ -5692,7 +5692,7 @@
         <v>350</v>
       </c>
       <c r="B225" s="27">
-        <v>6.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:52" x14ac:dyDescent="0.6">
@@ -5700,7 +5700,7 @@
         <v>351</v>
       </c>
       <c r="B226" s="27">
-        <v>7900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:52" x14ac:dyDescent="0.6">
@@ -5708,7 +5708,7 @@
         <v>352</v>
       </c>
       <c r="B227" s="27">
-        <v>7900</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:52" x14ac:dyDescent="0.6">
@@ -5716,7 +5716,7 @@
         <v>353</v>
       </c>
       <c r="B228" s="27">
-        <v>0.053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:52" x14ac:dyDescent="0.6">
@@ -5724,7 +5724,7 @@
         <v>354</v>
       </c>
       <c r="B229" s="27">
-        <v>0.053</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:52" x14ac:dyDescent="0.6">
@@ -5732,7 +5732,7 @@
         <v>355</v>
       </c>
       <c r="B230" s="27">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -5740,7 +5740,7 @@
         <v>356</v>
       </c>
       <c r="B231" s="27">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:52" x14ac:dyDescent="0.6">
@@ -5796,7 +5796,7 @@
         <v>363</v>
       </c>
       <c r="B238" s="14">
-        <v>6</v>
+        <v>16</v>
       </c>
     </row>
     <row r="239" spans="1:52" x14ac:dyDescent="0.6">
@@ -5956,7 +5956,7 @@
         <v>383</v>
       </c>
       <c r="B258" s="9">
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="259" spans="1:52" x14ac:dyDescent="0.6">
@@ -5964,7 +5964,7 @@
         <v>384</v>
       </c>
       <c r="B259" s="14">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="260" spans="1:52" x14ac:dyDescent="0.6">
@@ -6388,7 +6388,7 @@
         <v>436</v>
       </c>
       <c r="B312" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:51" x14ac:dyDescent="0.6">
@@ -6396,7 +6396,7 @@
         <v>437</v>
       </c>
       <c r="B313" s="6">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:51" x14ac:dyDescent="0.6">
@@ -6404,7 +6404,7 @@
         <v>438</v>
       </c>
       <c r="B314" s="6">
-        <v>-36.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:51" x14ac:dyDescent="0.6">
@@ -6412,7 +6412,7 @@
         <v>439</v>
       </c>
       <c r="B315" s="6">
-        <v>60</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:51" x14ac:dyDescent="0.6">
@@ -6428,7 +6428,7 @@
         <v>441</v>
       </c>
       <c r="B317" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:51" x14ac:dyDescent="0.6">
@@ -6444,7 +6444,7 @@
         <v>443</v>
       </c>
       <c r="B319" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:51" x14ac:dyDescent="0.6">
@@ -6460,7 +6460,7 @@
         <v>445</v>
       </c>
       <c r="B321" s="6">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:52" x14ac:dyDescent="0.6">
@@ -6468,7 +6468,7 @@
         <v>446</v>
       </c>
       <c r="B322" s="25">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:52" x14ac:dyDescent="0.6">
@@ -6492,7 +6492,7 @@
         <v>449</v>
       </c>
       <c r="B325" s="26">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:52" x14ac:dyDescent="0.6">
@@ -6500,7 +6500,7 @@
         <v>450</v>
       </c>
       <c r="B326" s="26">
-        <v>95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:52" ht="17.25" thickBot="1" x14ac:dyDescent="0.65">
@@ -6508,7 +6508,7 @@
         <v>451</v>
       </c>
       <c r="B327" s="4">
-        <v>999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:52" ht="16.899999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
